--- a/dati esempio/Dati esempio - Volontari attesi (1000).xlsx
+++ b/dati esempio/Dati esempio - Volontari attesi (1000).xlsx
@@ -8005,6 +8005,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -8033,6 +8034,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -8061,6 +8063,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -8089,6 +8092,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -8117,6 +8121,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -8145,6 +8150,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -8173,6 +8179,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -8201,6 +8208,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -8229,6 +8237,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -8257,6 +8266,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -8285,6 +8295,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -8313,6 +8324,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -8341,6 +8353,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -8369,6 +8382,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -8397,6 +8411,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -8425,6 +8440,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -8453,6 +8469,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -8481,6 +8498,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -8509,6 +8527,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -8537,6 +8556,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -8565,6 +8585,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -8593,6 +8614,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -8621,6 +8643,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -8649,6 +8672,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -8677,6 +8701,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
@@ -8705,6 +8730,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -8733,6 +8759,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
@@ -8761,6 +8788,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -8789,6 +8817,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -8817,6 +8846,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -8845,6 +8875,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -8873,6 +8904,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
@@ -8901,6 +8933,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
@@ -8929,6 +8962,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
@@ -8957,6 +8991,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
@@ -8985,6 +9020,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
@@ -9013,6 +9049,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
@@ -9041,6 +9078,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
@@ -9069,6 +9107,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
@@ -9097,6 +9136,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
@@ -9125,6 +9165,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
@@ -9153,6 +9194,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
@@ -9181,6 +9223,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
@@ -9209,6 +9252,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
@@ -9237,6 +9281,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
@@ -9265,6 +9310,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
@@ -9293,6 +9339,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
@@ -9321,6 +9368,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
@@ -9349,6 +9397,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
@@ -9377,6 +9426,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
@@ -9405,6 +9455,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
@@ -9433,6 +9484,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
@@ -9461,6 +9513,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
@@ -9489,6 +9542,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
@@ -9517,6 +9571,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
@@ -9545,6 +9600,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
@@ -9573,6 +9629,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
@@ -9601,6 +9658,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
@@ -9629,6 +9687,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
@@ -9657,6 +9716,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
@@ -9685,6 +9745,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
@@ -9713,6 +9774,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
@@ -9741,6 +9803,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
@@ -9769,6 +9832,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
@@ -9797,6 +9861,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
@@ -9825,6 +9890,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
@@ -9853,6 +9919,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
@@ -9881,6 +9948,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
@@ -9909,6 +9977,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
@@ -9937,6 +10006,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
@@ -9965,6 +10035,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
@@ -9993,6 +10064,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
@@ -10021,6 +10093,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
@@ -10049,6 +10122,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
@@ -10077,6 +10151,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
@@ -10105,6 +10180,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
@@ -10133,6 +10209,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
@@ -10161,6 +10238,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
@@ -10189,6 +10267,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
@@ -10217,6 +10296,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
@@ -10245,6 +10325,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
@@ -10273,6 +10354,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
@@ -10301,6 +10383,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
@@ -10329,6 +10412,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
@@ -10357,6 +10441,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
@@ -10385,6 +10470,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
@@ -10413,6 +10499,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
@@ -10441,6 +10528,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
@@ -10469,6 +10557,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
@@ -10497,6 +10586,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
@@ -10525,6 +10615,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
@@ -10553,6 +10644,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
@@ -10581,6 +10673,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
@@ -10609,6 +10702,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
@@ -10637,6 +10731,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
@@ -10665,6 +10760,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
@@ -10693,6 +10789,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
@@ -10721,6 +10818,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
@@ -10749,6 +10847,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
@@ -10777,6 +10876,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
@@ -10805,6 +10905,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
@@ -10833,6 +10934,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
@@ -10861,6 +10963,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
@@ -10889,6 +10992,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
@@ -10917,6 +11021,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
@@ -10945,6 +11050,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
@@ -10973,6 +11079,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
@@ -11001,6 +11108,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
@@ -11029,6 +11137,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
@@ -11057,6 +11166,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
@@ -11085,6 +11195,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
@@ -11113,6 +11224,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
@@ -11141,6 +11253,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
@@ -11169,6 +11282,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
@@ -11197,6 +11311,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
@@ -11225,6 +11340,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
@@ -11253,6 +11369,7 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
@@ -11281,6 +11398,7 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
@@ -11309,6 +11427,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
@@ -11337,6 +11456,7 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
@@ -11365,6 +11485,7 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
@@ -11393,6 +11514,7 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
@@ -11421,6 +11543,7 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
@@ -11449,6 +11572,7 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
@@ -11477,6 +11601,7 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
@@ -11505,6 +11630,7 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
@@ -11533,6 +11659,7 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
@@ -11561,6 +11688,7 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
@@ -11589,6 +11717,7 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
@@ -11617,6 +11746,7 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
@@ -11645,6 +11775,7 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
@@ -11673,6 +11804,7 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
@@ -11701,6 +11833,7 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
@@ -11729,6 +11862,7 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
@@ -11757,6 +11891,7 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
@@ -11785,6 +11920,7 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
@@ -11813,6 +11949,7 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
@@ -11841,6 +11978,7 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
@@ -11869,6 +12007,7 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
@@ -11897,6 +12036,7 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
@@ -11925,6 +12065,7 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
@@ -11953,6 +12094,7 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
@@ -11981,6 +12123,7 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
@@ -12009,6 +12152,7 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
@@ -12037,6 +12181,7 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
@@ -12065,6 +12210,7 @@
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
@@ -12093,6 +12239,7 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
@@ -12121,6 +12268,7 @@
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
@@ -12149,6 +12297,7 @@
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
@@ -12177,6 +12326,7 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
@@ -12205,6 +12355,7 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
@@ -12233,6 +12384,7 @@
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
     </row>
     <row r="154" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
@@ -12261,6 +12413,7 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
     </row>
     <row r="155" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
@@ -12289,6 +12442,7 @@
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
@@ -12317,6 +12471,7 @@
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
@@ -12345,6 +12500,7 @@
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
     </row>
     <row r="158" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
@@ -12373,6 +12529,7 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
     </row>
     <row r="159" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
@@ -12401,6 +12558,7 @@
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
@@ -12429,6 +12587,7 @@
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
@@ -12457,6 +12616,7 @@
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
@@ -12485,6 +12645,7 @@
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
@@ -12513,6 +12674,7 @@
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
@@ -12541,6 +12703,7 @@
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
@@ -12569,6 +12732,7 @@
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
     </row>
     <row r="166" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
@@ -12597,6 +12761,7 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
     </row>
     <row r="167" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
@@ -12625,6 +12790,7 @@
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
@@ -12653,6 +12819,7 @@
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
@@ -12681,6 +12848,7 @@
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
     </row>
     <row r="170" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
@@ -12709,6 +12877,7 @@
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
     </row>
     <row r="171" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
@@ -12737,6 +12906,7 @@
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
     </row>
     <row r="172" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
@@ -12765,6 +12935,7 @@
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
     </row>
     <row r="173" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
@@ -12793,6 +12964,7 @@
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
@@ -12821,6 +12993,7 @@
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
     </row>
     <row r="175" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
@@ -12849,6 +13022,7 @@
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
@@ -12877,6 +13051,7 @@
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
     </row>
     <row r="177" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
@@ -12905,6 +13080,7 @@
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
     </row>
     <row r="178" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
@@ -12933,6 +13109,7 @@
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
@@ -12961,6 +13138,7 @@
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
     </row>
     <row r="180" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
@@ -12989,6 +13167,7 @@
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
@@ -13017,6 +13196,7 @@
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
     </row>
     <row r="182" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
@@ -13045,6 +13225,7 @@
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
     </row>
     <row r="183" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
@@ -13073,6 +13254,7 @@
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
     </row>
     <row r="184" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
@@ -13101,6 +13283,7 @@
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
     </row>
     <row r="185" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
@@ -13129,6 +13312,7 @@
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
     </row>
     <row r="186" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
@@ -13157,6 +13341,7 @@
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
     </row>
     <row r="187" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
@@ -13185,6 +13370,7 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
     </row>
     <row r="188" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
@@ -13213,6 +13399,7 @@
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
     </row>
     <row r="189" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
@@ -13241,6 +13428,7 @@
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
     </row>
     <row r="190" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
@@ -13269,6 +13457,7 @@
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
     </row>
     <row r="191" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
@@ -13297,6 +13486,7 @@
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
     </row>
     <row r="192" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
@@ -13325,6 +13515,7 @@
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
     </row>
     <row r="193" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
@@ -13353,6 +13544,7 @@
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
     </row>
     <row r="194" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
@@ -13381,6 +13573,7 @@
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
     </row>
     <row r="195" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
@@ -13409,6 +13602,7 @@
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
     </row>
     <row r="196" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
@@ -13437,6 +13631,7 @@
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
     </row>
     <row r="197" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
@@ -13465,6 +13660,7 @@
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
     </row>
     <row r="198" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
@@ -13493,6 +13689,7 @@
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
     </row>
     <row r="199" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
@@ -13521,6 +13718,7 @@
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
     </row>
     <row r="200" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
@@ -13549,6 +13747,7 @@
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
     </row>
     <row r="201" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
@@ -13577,6 +13776,7 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
     </row>
     <row r="202" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
@@ -13605,6 +13805,7 @@
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
     </row>
     <row r="203" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
@@ -13633,6 +13834,7 @@
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
     </row>
     <row r="204" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
@@ -13661,6 +13863,7 @@
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
     </row>
     <row r="205" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
@@ -13689,6 +13892,7 @@
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
     </row>
     <row r="206" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
@@ -13717,6 +13921,7 @@
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
     </row>
     <row r="207" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
@@ -13745,6 +13950,7 @@
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
     </row>
     <row r="208" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
@@ -13773,6 +13979,7 @@
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
     </row>
     <row r="209" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
@@ -13801,6 +14008,7 @@
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
     </row>
     <row r="210" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
@@ -13829,6 +14037,7 @@
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
     </row>
     <row r="211" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
@@ -13857,6 +14066,7 @@
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
     </row>
     <row r="212" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
@@ -13885,6 +14095,7 @@
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
     </row>
     <row r="213" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
@@ -13913,6 +14124,7 @@
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
     </row>
     <row r="214" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
@@ -13941,6 +14153,7 @@
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
     </row>
     <row r="215" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
@@ -13969,6 +14182,7 @@
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
     </row>
     <row r="216" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
@@ -13997,6 +14211,7 @@
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
     </row>
     <row r="217" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
@@ -14025,6 +14240,7 @@
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
     </row>
     <row r="218" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
@@ -14053,6 +14269,7 @@
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
     </row>
     <row r="219" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
@@ -14081,6 +14298,7 @@
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
     </row>
     <row r="220" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
@@ -14109,6 +14327,7 @@
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
     </row>
     <row r="221" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
@@ -14137,6 +14356,7 @@
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
     </row>
     <row r="222" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
@@ -14165,6 +14385,7 @@
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
     </row>
     <row r="223" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
@@ -14193,6 +14414,7 @@
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
     </row>
     <row r="224" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
@@ -14221,6 +14443,7 @@
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
     </row>
     <row r="225" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
@@ -14249,6 +14472,7 @@
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
     </row>
     <row r="226" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
@@ -14277,6 +14501,7 @@
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
     </row>
     <row r="227" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
@@ -14305,6 +14530,7 @@
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
     </row>
     <row r="228" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
@@ -14333,6 +14559,7 @@
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
     </row>
     <row r="229" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
@@ -14361,6 +14588,7 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
     </row>
     <row r="230" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
@@ -14389,6 +14617,7 @@
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
     </row>
     <row r="231" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
@@ -14417,6 +14646,7 @@
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
     </row>
     <row r="232" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
@@ -14445,6 +14675,7 @@
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
     </row>
     <row r="233" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
@@ -14473,6 +14704,7 @@
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
     </row>
     <row r="234" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
@@ -14501,6 +14733,7 @@
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
     </row>
     <row r="235" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
@@ -14529,6 +14762,7 @@
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
     </row>
     <row r="236" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
@@ -14557,6 +14791,7 @@
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
     </row>
     <row r="237" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
@@ -14585,6 +14820,7 @@
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
     </row>
     <row r="238" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
@@ -14613,6 +14849,7 @@
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
+      <c r="S238" s="1"/>
     </row>
     <row r="239" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
@@ -14641,6 +14878,7 @@
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
     </row>
     <row r="240" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
@@ -14669,6 +14907,7 @@
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
+      <c r="S240" s="1"/>
     </row>
     <row r="241" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
@@ -14697,6 +14936,7 @@
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
+      <c r="S241" s="1"/>
     </row>
     <row r="242" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
@@ -14725,6 +14965,7 @@
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
     </row>
     <row r="243" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
@@ -14753,6 +14994,7 @@
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
     </row>
     <row r="244" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
@@ -14781,6 +15023,7 @@
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
+      <c r="S244" s="1"/>
     </row>
     <row r="245" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
@@ -14809,6 +15052,7 @@
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
+      <c r="S245" s="1"/>
     </row>
     <row r="246" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
@@ -14837,6 +15081,7 @@
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
+      <c r="S246" s="1"/>
     </row>
     <row r="247" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
@@ -14865,6 +15110,7 @@
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
+      <c r="S247" s="1"/>
     </row>
     <row r="248" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
@@ -14893,6 +15139,7 @@
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
+      <c r="S248" s="1"/>
     </row>
     <row r="249" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
@@ -14921,6 +15168,7 @@
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
+      <c r="S249" s="1"/>
     </row>
     <row r="250" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
@@ -14949,6 +15197,7 @@
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
+      <c r="S250" s="1"/>
     </row>
     <row r="251" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
@@ -14977,6 +15226,7 @@
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
+      <c r="S251" s="1"/>
     </row>
     <row r="252" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
@@ -15005,6 +15255,7 @@
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
+      <c r="S252" s="1"/>
     </row>
     <row r="253" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
@@ -15033,6 +15284,7 @@
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
+      <c r="S253" s="1"/>
     </row>
     <row r="254" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
@@ -15061,6 +15313,7 @@
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
+      <c r="S254" s="1"/>
     </row>
     <row r="255" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
@@ -15089,6 +15342,7 @@
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
+      <c r="S255" s="1"/>
     </row>
     <row r="256" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
@@ -15117,6 +15371,7 @@
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
+      <c r="S256" s="1"/>
     </row>
     <row r="257" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
@@ -15145,6 +15400,7 @@
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
+      <c r="S257" s="1"/>
     </row>
     <row r="258" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
@@ -15173,6 +15429,7 @@
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
       <c r="R258" s="1"/>
+      <c r="S258" s="1"/>
     </row>
     <row r="259" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
@@ -15201,6 +15458,7 @@
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
+      <c r="S259" s="1"/>
     </row>
     <row r="260" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
@@ -15229,6 +15487,7 @@
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
       <c r="R260" s="1"/>
+      <c r="S260" s="1"/>
     </row>
     <row r="261" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
@@ -15257,6 +15516,7 @@
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
+      <c r="S261" s="1"/>
     </row>
     <row r="262" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
@@ -15285,6 +15545,7 @@
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
+      <c r="S262" s="1"/>
     </row>
     <row r="263" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
@@ -15313,6 +15574,7 @@
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
+      <c r="S263" s="1"/>
     </row>
     <row r="264" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
@@ -15341,6 +15603,7 @@
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
+      <c r="S264" s="1"/>
     </row>
     <row r="265" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
@@ -15369,6 +15632,7 @@
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
+      <c r="S265" s="1"/>
     </row>
     <row r="266" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
@@ -15397,6 +15661,7 @@
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
+      <c r="S266" s="1"/>
     </row>
     <row r="267" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
@@ -15425,6 +15690,7 @@
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
+      <c r="S267" s="1"/>
     </row>
     <row r="268" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
@@ -15453,6 +15719,7 @@
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
+      <c r="S268" s="1"/>
     </row>
     <row r="269" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
@@ -15481,6 +15748,7 @@
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
+      <c r="S269" s="1"/>
     </row>
     <row r="270" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
@@ -15509,6 +15777,7 @@
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
+      <c r="S270" s="1"/>
     </row>
     <row r="271" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
@@ -15537,6 +15806,7 @@
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
+      <c r="S271" s="1"/>
     </row>
     <row r="272" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
@@ -15565,6 +15835,7 @@
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
+      <c r="S272" s="1"/>
     </row>
     <row r="273" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
@@ -15593,6 +15864,7 @@
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
+      <c r="S273" s="1"/>
     </row>
     <row r="274" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
@@ -15621,6 +15893,7 @@
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
       <c r="R274" s="1"/>
+      <c r="S274" s="1"/>
     </row>
     <row r="275" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
@@ -15649,6 +15922,7 @@
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
+      <c r="S275" s="1"/>
     </row>
     <row r="276" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
@@ -15677,6 +15951,7 @@
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
+      <c r="S276" s="1"/>
     </row>
     <row r="277" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
@@ -15705,6 +15980,7 @@
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
+      <c r="S277" s="1"/>
     </row>
     <row r="278" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
@@ -15733,6 +16009,7 @@
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
+      <c r="S278" s="1"/>
     </row>
     <row r="279" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
@@ -15761,6 +16038,7 @@
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
+      <c r="S279" s="1"/>
     </row>
     <row r="280" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
@@ -15789,6 +16067,7 @@
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
+      <c r="S280" s="1"/>
     </row>
     <row r="281" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
@@ -15817,6 +16096,7 @@
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
       <c r="R281" s="1"/>
+      <c r="S281" s="1"/>
     </row>
     <row r="282" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
@@ -15845,6 +16125,7 @@
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
+      <c r="S282" s="1"/>
     </row>
     <row r="283" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
@@ -15873,6 +16154,7 @@
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
+      <c r="S283" s="1"/>
     </row>
     <row r="284" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
@@ -15901,6 +16183,7 @@
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
+      <c r="S284" s="1"/>
     </row>
     <row r="285" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
@@ -15929,6 +16212,7 @@
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
+      <c r="S285" s="1"/>
     </row>
     <row r="286" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
@@ -15957,6 +16241,7 @@
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
+      <c r="S286" s="1"/>
     </row>
     <row r="287" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
@@ -15985,6 +16270,7 @@
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
+      <c r="S287" s="1"/>
     </row>
     <row r="288" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
@@ -16013,6 +16299,7 @@
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
+      <c r="S288" s="1"/>
     </row>
     <row r="289" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
@@ -16041,6 +16328,7 @@
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
+      <c r="S289" s="1"/>
     </row>
     <row r="290" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
@@ -16069,6 +16357,7 @@
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
+      <c r="S290" s="1"/>
     </row>
     <row r="291" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
@@ -16097,6 +16386,7 @@
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
+      <c r="S291" s="1"/>
     </row>
     <row r="292" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
@@ -16125,6 +16415,7 @@
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
+      <c r="S292" s="1"/>
     </row>
     <row r="293" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
@@ -16153,6 +16444,7 @@
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
+      <c r="S293" s="1"/>
     </row>
     <row r="294" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
@@ -16181,6 +16473,7 @@
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
+      <c r="S294" s="1"/>
     </row>
     <row r="295" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
@@ -16209,6 +16502,7 @@
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
+      <c r="S295" s="1"/>
     </row>
     <row r="296" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
@@ -16237,6 +16531,7 @@
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
+      <c r="S296" s="1"/>
     </row>
     <row r="297" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
@@ -16265,6 +16560,7 @@
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
+      <c r="S297" s="1"/>
     </row>
     <row r="298" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
@@ -16293,6 +16589,7 @@
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
       <c r="R298" s="1"/>
+      <c r="S298" s="1"/>
     </row>
     <row r="299" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
@@ -16321,6 +16618,7 @@
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
       <c r="R299" s="1"/>
+      <c r="S299" s="1"/>
     </row>
     <row r="300" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
@@ -16349,6 +16647,7 @@
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
+      <c r="S300" s="1"/>
     </row>
     <row r="301" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
@@ -16377,6 +16676,7 @@
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
+      <c r="S301" s="1"/>
     </row>
     <row r="302" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
@@ -16405,6 +16705,7 @@
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
+      <c r="S302" s="1"/>
     </row>
     <row r="303" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
@@ -16433,6 +16734,7 @@
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
+      <c r="S303" s="1"/>
     </row>
     <row r="304" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
@@ -16461,6 +16763,7 @@
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
+      <c r="S304" s="1"/>
     </row>
     <row r="305" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
@@ -16489,6 +16792,7 @@
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
+      <c r="S305" s="1"/>
     </row>
     <row r="306" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
@@ -16517,6 +16821,7 @@
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
       <c r="R306" s="1"/>
+      <c r="S306" s="1"/>
     </row>
     <row r="307" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
@@ -16545,6 +16850,7 @@
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
+      <c r="S307" s="1"/>
     </row>
     <row r="308" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
@@ -16573,6 +16879,7 @@
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
+      <c r="S308" s="1"/>
     </row>
     <row r="309" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
@@ -16601,6 +16908,7 @@
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
+      <c r="S309" s="1"/>
     </row>
     <row r="310" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
@@ -16629,6 +16937,7 @@
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
+      <c r="S310" s="1"/>
     </row>
     <row r="311" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
@@ -16657,6 +16966,7 @@
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
+      <c r="S311" s="1"/>
     </row>
     <row r="312" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
@@ -16685,6 +16995,7 @@
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
+      <c r="S312" s="1"/>
     </row>
     <row r="313" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
@@ -16713,6 +17024,7 @@
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
+      <c r="S313" s="1"/>
     </row>
     <row r="314" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
@@ -16741,6 +17053,7 @@
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
+      <c r="S314" s="1"/>
     </row>
     <row r="315" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
@@ -16769,6 +17082,7 @@
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
+      <c r="S315" s="1"/>
     </row>
     <row r="316" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
@@ -16797,6 +17111,7 @@
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
+      <c r="S316" s="1"/>
     </row>
     <row r="317" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
@@ -16825,6 +17140,7 @@
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
       <c r="R317" s="1"/>
+      <c r="S317" s="1"/>
     </row>
     <row r="318" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
@@ -16853,6 +17169,7 @@
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
+      <c r="S318" s="1"/>
     </row>
     <row r="319" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
@@ -16881,6 +17198,7 @@
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
       <c r="R319" s="1"/>
+      <c r="S319" s="1"/>
     </row>
     <row r="320" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
@@ -16909,6 +17227,7 @@
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
+      <c r="S320" s="1"/>
     </row>
     <row r="321" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
@@ -16937,6 +17256,7 @@
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
+      <c r="S321" s="1"/>
     </row>
     <row r="322" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
@@ -16965,6 +17285,7 @@
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
+      <c r="S322" s="1"/>
     </row>
     <row r="323" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
@@ -16993,6 +17314,7 @@
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
+      <c r="S323" s="1"/>
     </row>
     <row r="324" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
@@ -17021,6 +17343,7 @@
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
+      <c r="S324" s="1"/>
     </row>
     <row r="325" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
@@ -17049,6 +17372,7 @@
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
+      <c r="S325" s="1"/>
     </row>
     <row r="326" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
@@ -17077,6 +17401,7 @@
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
+      <c r="S326" s="1"/>
     </row>
     <row r="327" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
@@ -17105,6 +17430,7 @@
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
+      <c r="S327" s="1"/>
     </row>
     <row r="328" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
@@ -17133,6 +17459,7 @@
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
+      <c r="S328" s="1"/>
     </row>
     <row r="329" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
@@ -17161,6 +17488,7 @@
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
       <c r="R329" s="1"/>
+      <c r="S329" s="1"/>
     </row>
     <row r="330" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
@@ -17189,6 +17517,7 @@
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
+      <c r="S330" s="1"/>
     </row>
     <row r="331" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
@@ -17217,6 +17546,7 @@
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
+      <c r="S331" s="1"/>
     </row>
     <row r="332" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
@@ -17245,6 +17575,7 @@
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
+      <c r="S332" s="1"/>
     </row>
     <row r="333" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
@@ -17273,6 +17604,7 @@
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
+      <c r="S333" s="1"/>
     </row>
     <row r="334" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
@@ -17301,6 +17633,7 @@
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
+      <c r="S334" s="1"/>
     </row>
     <row r="335" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
@@ -17329,6 +17662,7 @@
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
+      <c r="S335" s="1"/>
     </row>
     <row r="336" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
@@ -17357,6 +17691,7 @@
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
+      <c r="S336" s="1"/>
     </row>
     <row r="337" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
@@ -17385,6 +17720,7 @@
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
+      <c r="S337" s="1"/>
     </row>
     <row r="338" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
@@ -17413,6 +17749,7 @@
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
+      <c r="S338" s="1"/>
     </row>
     <row r="339" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
@@ -17441,6 +17778,7 @@
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
+      <c r="S339" s="1"/>
     </row>
     <row r="340" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
@@ -17469,6 +17807,7 @@
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
+      <c r="S340" s="1"/>
     </row>
     <row r="341" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
@@ -17497,6 +17836,7 @@
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
+      <c r="S341" s="1"/>
     </row>
     <row r="342" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
@@ -17525,6 +17865,7 @@
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
+      <c r="S342" s="1"/>
     </row>
     <row r="343" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
@@ -17553,6 +17894,7 @@
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
+      <c r="S343" s="1"/>
     </row>
     <row r="344" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
@@ -17581,6 +17923,7 @@
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
+      <c r="S344" s="1"/>
     </row>
     <row r="345" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
@@ -17609,6 +17952,7 @@
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
+      <c r="S345" s="1"/>
     </row>
     <row r="346" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
@@ -17637,6 +17981,7 @@
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
+      <c r="S346" s="1"/>
     </row>
     <row r="347" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
@@ -17665,6 +18010,7 @@
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
+      <c r="S347" s="1"/>
     </row>
     <row r="348" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
@@ -17693,6 +18039,7 @@
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
+      <c r="S348" s="1"/>
     </row>
     <row r="349" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
@@ -17721,6 +18068,7 @@
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
+      <c r="S349" s="1"/>
     </row>
     <row r="350" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
@@ -17749,6 +18097,7 @@
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
+      <c r="S350" s="1"/>
     </row>
     <row r="351" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
@@ -17777,6 +18126,7 @@
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
+      <c r="S351" s="1"/>
     </row>
     <row r="352" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
@@ -17805,6 +18155,7 @@
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
+      <c r="S352" s="1"/>
     </row>
     <row r="353" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
@@ -17833,6 +18184,7 @@
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
+      <c r="S353" s="1"/>
     </row>
     <row r="354" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
@@ -17861,6 +18213,7 @@
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
+      <c r="S354" s="1"/>
     </row>
     <row r="355" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
@@ -17889,6 +18242,7 @@
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
+      <c r="S355" s="1"/>
     </row>
     <row r="356" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
@@ -17917,6 +18271,7 @@
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
+      <c r="S356" s="1"/>
     </row>
     <row r="357" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
@@ -17945,6 +18300,7 @@
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
+      <c r="S357" s="1"/>
     </row>
     <row r="358" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
@@ -17973,6 +18329,7 @@
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
+      <c r="S358" s="1"/>
     </row>
     <row r="359" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
@@ -18001,6 +18358,7 @@
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
+      <c r="S359" s="1"/>
     </row>
     <row r="360" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
@@ -18029,6 +18387,7 @@
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
+      <c r="S360" s="1"/>
     </row>
     <row r="361" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
@@ -18057,6 +18416,7 @@
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
+      <c r="S361" s="1"/>
     </row>
     <row r="362" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
@@ -18085,6 +18445,7 @@
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
+      <c r="S362" s="1"/>
     </row>
     <row r="363" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
@@ -18113,6 +18474,7 @@
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
+      <c r="S363" s="1"/>
     </row>
     <row r="364" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
@@ -18141,6 +18503,7 @@
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
+      <c r="S364" s="1"/>
     </row>
     <row r="365" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
@@ -18169,6 +18532,7 @@
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
+      <c r="S365" s="1"/>
     </row>
     <row r="366" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
@@ -18197,6 +18561,7 @@
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
+      <c r="S366" s="1"/>
     </row>
     <row r="367" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
@@ -18225,6 +18590,7 @@
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
+      <c r="S367" s="1"/>
     </row>
     <row r="368" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
@@ -18253,6 +18619,7 @@
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
+      <c r="S368" s="1"/>
     </row>
     <row r="369" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
@@ -18281,6 +18648,7 @@
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
+      <c r="S369" s="1"/>
     </row>
     <row r="370" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
@@ -18309,6 +18677,7 @@
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
+      <c r="S370" s="1"/>
     </row>
     <row r="371" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
@@ -18337,6 +18706,7 @@
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
+      <c r="S371" s="1"/>
     </row>
     <row r="372" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
@@ -18365,6 +18735,7 @@
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
+      <c r="S372" s="1"/>
     </row>
     <row r="373" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
@@ -18393,6 +18764,7 @@
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
+      <c r="S373" s="1"/>
     </row>
     <row r="374" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
@@ -18421,6 +18793,7 @@
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
+      <c r="S374" s="1"/>
     </row>
     <row r="375" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
@@ -18449,6 +18822,7 @@
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
+      <c r="S375" s="1"/>
     </row>
     <row r="376" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
@@ -18477,6 +18851,7 @@
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
+      <c r="S376" s="1"/>
     </row>
     <row r="377" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
@@ -18505,6 +18880,7 @@
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
+      <c r="S377" s="1"/>
     </row>
     <row r="378" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
@@ -18533,6 +18909,7 @@
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
+      <c r="S378" s="1"/>
     </row>
     <row r="379" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
@@ -18561,6 +18938,7 @@
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
+      <c r="S379" s="1"/>
     </row>
     <row r="380" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
@@ -18589,6 +18967,7 @@
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
+      <c r="S380" s="1"/>
     </row>
     <row r="381" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
@@ -18617,6 +18996,7 @@
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
+      <c r="S381" s="1"/>
     </row>
     <row r="382" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
@@ -18645,6 +19025,7 @@
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
+      <c r="S382" s="1"/>
     </row>
     <row r="383" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
@@ -18673,6 +19054,7 @@
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
       <c r="R383" s="1"/>
+      <c r="S383" s="1"/>
     </row>
     <row r="384" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
@@ -18701,6 +19083,7 @@
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
+      <c r="S384" s="1"/>
     </row>
     <row r="385" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
@@ -18729,6 +19112,7 @@
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
       <c r="R385" s="1"/>
+      <c r="S385" s="1"/>
     </row>
     <row r="386" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
@@ -18757,6 +19141,7 @@
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
       <c r="R386" s="1"/>
+      <c r="S386" s="1"/>
     </row>
     <row r="387" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
@@ -18785,6 +19170,7 @@
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
+      <c r="S387" s="1"/>
     </row>
     <row r="388" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
@@ -18813,6 +19199,7 @@
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
+      <c r="S388" s="1"/>
     </row>
     <row r="389" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
@@ -18841,6 +19228,7 @@
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
+      <c r="S389" s="1"/>
     </row>
     <row r="390" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
@@ -18869,6 +19257,7 @@
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
+      <c r="S390" s="1"/>
     </row>
     <row r="391" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
@@ -18897,6 +19286,7 @@
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
+      <c r="S391" s="1"/>
     </row>
     <row r="392" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
@@ -18925,6 +19315,7 @@
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
+      <c r="S392" s="1"/>
     </row>
     <row r="393" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
@@ -18953,6 +19344,7 @@
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
       <c r="R393" s="1"/>
+      <c r="S393" s="1"/>
     </row>
     <row r="394" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
@@ -18981,6 +19373,7 @@
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
+      <c r="S394" s="1"/>
     </row>
     <row r="395" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
@@ -19009,6 +19402,7 @@
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
       <c r="R395" s="1"/>
+      <c r="S395" s="1"/>
     </row>
     <row r="396" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
@@ -19037,6 +19431,7 @@
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
       <c r="R396" s="1"/>
+      <c r="S396" s="1"/>
     </row>
     <row r="397" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
@@ -19065,6 +19460,7 @@
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
       <c r="R397" s="1"/>
+      <c r="S397" s="1"/>
     </row>
     <row r="398" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
@@ -19093,6 +19489,7 @@
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
+      <c r="S398" s="1"/>
     </row>
     <row r="399" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
@@ -19121,6 +19518,7 @@
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
+      <c r="S399" s="1"/>
     </row>
     <row r="400" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
@@ -19149,6 +19547,7 @@
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
+      <c r="S400" s="1"/>
     </row>
     <row r="401" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
@@ -19177,6 +19576,7 @@
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
+      <c r="S401" s="1"/>
     </row>
     <row r="402" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
@@ -19205,6 +19605,7 @@
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
+      <c r="S402" s="1"/>
     </row>
     <row r="403" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
@@ -19233,6 +19634,7 @@
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
+      <c r="S403" s="1"/>
     </row>
     <row r="404" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
@@ -19261,6 +19663,7 @@
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
+      <c r="S404" s="1"/>
     </row>
     <row r="405" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
@@ -19289,6 +19692,7 @@
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
+      <c r="S405" s="1"/>
     </row>
     <row r="406" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
@@ -19317,6 +19721,7 @@
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
+      <c r="S406" s="1"/>
     </row>
     <row r="407" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
@@ -19345,6 +19750,7 @@
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
+      <c r="S407" s="1"/>
     </row>
     <row r="408" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
@@ -19373,6 +19779,7 @@
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
+      <c r="S408" s="1"/>
     </row>
     <row r="409" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
@@ -19401,6 +19808,7 @@
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
       <c r="R409" s="1"/>
+      <c r="S409" s="1"/>
     </row>
     <row r="410" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
@@ -19429,6 +19837,7 @@
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
       <c r="R410" s="1"/>
+      <c r="S410" s="1"/>
     </row>
     <row r="411" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
@@ -19457,6 +19866,7 @@
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
       <c r="R411" s="1"/>
+      <c r="S411" s="1"/>
     </row>
     <row r="412" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
@@ -19485,6 +19895,7 @@
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
       <c r="R412" s="1"/>
+      <c r="S412" s="1"/>
     </row>
     <row r="413" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
@@ -19513,6 +19924,7 @@
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
       <c r="R413" s="1"/>
+      <c r="S413" s="1"/>
     </row>
     <row r="414" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
@@ -19541,6 +19953,7 @@
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
       <c r="R414" s="1"/>
+      <c r="S414" s="1"/>
     </row>
     <row r="415" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
@@ -19569,6 +19982,7 @@
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
       <c r="R415" s="1"/>
+      <c r="S415" s="1"/>
     </row>
     <row r="416" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
@@ -19597,6 +20011,7 @@
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
       <c r="R416" s="1"/>
+      <c r="S416" s="1"/>
     </row>
     <row r="417" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
@@ -19625,6 +20040,7 @@
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
       <c r="R417" s="1"/>
+      <c r="S417" s="1"/>
     </row>
     <row r="418" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
@@ -19653,6 +20069,7 @@
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
       <c r="R418" s="1"/>
+      <c r="S418" s="1"/>
     </row>
     <row r="419" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
@@ -19681,6 +20098,7 @@
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
       <c r="R419" s="1"/>
+      <c r="S419" s="1"/>
     </row>
     <row r="420" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
@@ -19709,6 +20127,7 @@
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
       <c r="R420" s="1"/>
+      <c r="S420" s="1"/>
     </row>
     <row r="421" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
@@ -19737,6 +20156,7 @@
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
       <c r="R421" s="1"/>
+      <c r="S421" s="1"/>
     </row>
     <row r="422" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
@@ -19765,6 +20185,7 @@
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
       <c r="R422" s="1"/>
+      <c r="S422" s="1"/>
     </row>
     <row r="423" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
@@ -19793,6 +20214,7 @@
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
       <c r="R423" s="1"/>
+      <c r="S423" s="1"/>
     </row>
     <row r="424" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
@@ -19821,6 +20243,7 @@
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
       <c r="R424" s="1"/>
+      <c r="S424" s="1"/>
     </row>
     <row r="425" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
@@ -19849,6 +20272,7 @@
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
       <c r="R425" s="1"/>
+      <c r="S425" s="1"/>
     </row>
     <row r="426" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
@@ -19877,6 +20301,7 @@
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
       <c r="R426" s="1"/>
+      <c r="S426" s="1"/>
     </row>
     <row r="427" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
@@ -19905,6 +20330,7 @@
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
       <c r="R427" s="1"/>
+      <c r="S427" s="1"/>
     </row>
     <row r="428" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
@@ -19933,6 +20359,7 @@
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
       <c r="R428" s="1"/>
+      <c r="S428" s="1"/>
     </row>
     <row r="429" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
@@ -19961,6 +20388,7 @@
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
       <c r="R429" s="1"/>
+      <c r="S429" s="1"/>
     </row>
     <row r="430" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
@@ -19989,6 +20417,7 @@
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
       <c r="R430" s="1"/>
+      <c r="S430" s="1"/>
     </row>
     <row r="431" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
@@ -20017,6 +20446,7 @@
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
       <c r="R431" s="1"/>
+      <c r="S431" s="1"/>
     </row>
     <row r="432" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
@@ -20045,6 +20475,7 @@
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
       <c r="R432" s="1"/>
+      <c r="S432" s="1"/>
     </row>
     <row r="433" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
@@ -20073,6 +20504,7 @@
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
       <c r="R433" s="1"/>
+      <c r="S433" s="1"/>
     </row>
     <row r="434" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
@@ -20101,6 +20533,7 @@
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
       <c r="R434" s="1"/>
+      <c r="S434" s="1"/>
     </row>
     <row r="435" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
@@ -20129,6 +20562,7 @@
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
       <c r="R435" s="1"/>
+      <c r="S435" s="1"/>
     </row>
     <row r="436" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
@@ -20157,6 +20591,7 @@
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
       <c r="R436" s="1"/>
+      <c r="S436" s="1"/>
     </row>
     <row r="437" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
@@ -20185,6 +20620,7 @@
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
       <c r="R437" s="1"/>
+      <c r="S437" s="1"/>
     </row>
     <row r="438" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
@@ -20213,6 +20649,7 @@
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
       <c r="R438" s="1"/>
+      <c r="S438" s="1"/>
     </row>
     <row r="439" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
@@ -20241,6 +20678,7 @@
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
       <c r="R439" s="1"/>
+      <c r="S439" s="1"/>
     </row>
     <row r="440" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
@@ -20269,6 +20707,7 @@
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
       <c r="R440" s="1"/>
+      <c r="S440" s="1"/>
     </row>
     <row r="441" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
@@ -20297,6 +20736,7 @@
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
       <c r="R441" s="1"/>
+      <c r="S441" s="1"/>
     </row>
     <row r="442" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
@@ -20325,6 +20765,7 @@
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
       <c r="R442" s="1"/>
+      <c r="S442" s="1"/>
     </row>
     <row r="443" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
@@ -20353,6 +20794,7 @@
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
       <c r="R443" s="1"/>
+      <c r="S443" s="1"/>
     </row>
     <row r="444" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
@@ -20381,6 +20823,7 @@
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
       <c r="R444" s="1"/>
+      <c r="S444" s="1"/>
     </row>
     <row r="445" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
@@ -20409,6 +20852,7 @@
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
       <c r="R445" s="1"/>
+      <c r="S445" s="1"/>
     </row>
     <row r="446" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
@@ -20437,6 +20881,7 @@
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
       <c r="R446" s="1"/>
+      <c r="S446" s="1"/>
     </row>
     <row r="447" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
@@ -20465,6 +20910,7 @@
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
       <c r="R447" s="1"/>
+      <c r="S447" s="1"/>
     </row>
     <row r="448" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
@@ -20493,6 +20939,7 @@
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
       <c r="R448" s="1"/>
+      <c r="S448" s="1"/>
     </row>
     <row r="449" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
@@ -20521,6 +20968,7 @@
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
       <c r="R449" s="1"/>
+      <c r="S449" s="1"/>
     </row>
     <row r="450" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
@@ -20549,6 +20997,7 @@
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
       <c r="R450" s="1"/>
+      <c r="S450" s="1"/>
     </row>
     <row r="451" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
@@ -20577,6 +21026,7 @@
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
       <c r="R451" s="1"/>
+      <c r="S451" s="1"/>
     </row>
     <row r="452" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
@@ -20605,6 +21055,7 @@
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
       <c r="R452" s="1"/>
+      <c r="S452" s="1"/>
     </row>
     <row r="453" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
@@ -20633,6 +21084,7 @@
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
       <c r="R453" s="1"/>
+      <c r="S453" s="1"/>
     </row>
     <row r="454" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
@@ -20661,6 +21113,7 @@
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
+      <c r="S454" s="1"/>
     </row>
     <row r="455" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
@@ -20689,6 +21142,7 @@
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
       <c r="R455" s="1"/>
+      <c r="S455" s="1"/>
     </row>
     <row r="456" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
@@ -20717,6 +21171,7 @@
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
       <c r="R456" s="1"/>
+      <c r="S456" s="1"/>
     </row>
     <row r="457" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
@@ -20745,6 +21200,7 @@
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
       <c r="R457" s="1"/>
+      <c r="S457" s="1"/>
     </row>
     <row r="458" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
@@ -20773,6 +21229,7 @@
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
       <c r="R458" s="1"/>
+      <c r="S458" s="1"/>
     </row>
     <row r="459" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
@@ -20801,6 +21258,7 @@
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
       <c r="R459" s="1"/>
+      <c r="S459" s="1"/>
     </row>
     <row r="460" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
@@ -20829,6 +21287,7 @@
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
       <c r="R460" s="1"/>
+      <c r="S460" s="1"/>
     </row>
     <row r="461" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
@@ -20857,6 +21316,7 @@
       <c r="P461" s="1"/>
       <c r="Q461" s="1"/>
       <c r="R461" s="1"/>
+      <c r="S461" s="1"/>
     </row>
     <row r="462" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
@@ -20885,6 +21345,7 @@
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
       <c r="R462" s="1"/>
+      <c r="S462" s="1"/>
     </row>
     <row r="463" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
@@ -20913,6 +21374,7 @@
       <c r="P463" s="1"/>
       <c r="Q463" s="1"/>
       <c r="R463" s="1"/>
+      <c r="S463" s="1"/>
     </row>
     <row r="464" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
@@ -20941,6 +21403,7 @@
       <c r="P464" s="1"/>
       <c r="Q464" s="1"/>
       <c r="R464" s="1"/>
+      <c r="S464" s="1"/>
     </row>
     <row r="465" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
@@ -20969,6 +21432,7 @@
       <c r="P465" s="1"/>
       <c r="Q465" s="1"/>
       <c r="R465" s="1"/>
+      <c r="S465" s="1"/>
     </row>
     <row r="466" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
@@ -20997,6 +21461,7 @@
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
       <c r="R466" s="1"/>
+      <c r="S466" s="1"/>
     </row>
     <row r="467" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
@@ -21025,6 +21490,7 @@
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
       <c r="R467" s="1"/>
+      <c r="S467" s="1"/>
     </row>
     <row r="468" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
@@ -21053,6 +21519,7 @@
       <c r="P468" s="1"/>
       <c r="Q468" s="1"/>
       <c r="R468" s="1"/>
+      <c r="S468" s="1"/>
     </row>
     <row r="469" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
@@ -21081,6 +21548,7 @@
       <c r="P469" s="1"/>
       <c r="Q469" s="1"/>
       <c r="R469" s="1"/>
+      <c r="S469" s="1"/>
     </row>
     <row r="470" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
@@ -21109,6 +21577,7 @@
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
       <c r="R470" s="1"/>
+      <c r="S470" s="1"/>
     </row>
     <row r="471" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
@@ -21137,6 +21606,7 @@
       <c r="P471" s="1"/>
       <c r="Q471" s="1"/>
       <c r="R471" s="1"/>
+      <c r="S471" s="1"/>
     </row>
     <row r="472" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
@@ -21165,6 +21635,7 @@
       <c r="P472" s="1"/>
       <c r="Q472" s="1"/>
       <c r="R472" s="1"/>
+      <c r="S472" s="1"/>
     </row>
     <row r="473" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
@@ -21193,6 +21664,7 @@
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
       <c r="R473" s="1"/>
+      <c r="S473" s="1"/>
     </row>
     <row r="474" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
@@ -21221,6 +21693,7 @@
       <c r="P474" s="1"/>
       <c r="Q474" s="1"/>
       <c r="R474" s="1"/>
+      <c r="S474" s="1"/>
     </row>
     <row r="475" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
@@ -21249,6 +21722,7 @@
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
       <c r="R475" s="1"/>
+      <c r="S475" s="1"/>
     </row>
     <row r="476" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
@@ -21277,6 +21751,7 @@
       <c r="P476" s="1"/>
       <c r="Q476" s="1"/>
       <c r="R476" s="1"/>
+      <c r="S476" s="1"/>
     </row>
     <row r="477" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
@@ -21305,6 +21780,7 @@
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
       <c r="R477" s="1"/>
+      <c r="S477" s="1"/>
     </row>
     <row r="478" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
@@ -21333,6 +21809,7 @@
       <c r="P478" s="1"/>
       <c r="Q478" s="1"/>
       <c r="R478" s="1"/>
+      <c r="S478" s="1"/>
     </row>
     <row r="479" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
@@ -21361,6 +21838,7 @@
       <c r="P479" s="1"/>
       <c r="Q479" s="1"/>
       <c r="R479" s="1"/>
+      <c r="S479" s="1"/>
     </row>
     <row r="480" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
@@ -21389,6 +21867,7 @@
       <c r="P480" s="1"/>
       <c r="Q480" s="1"/>
       <c r="R480" s="1"/>
+      <c r="S480" s="1"/>
     </row>
     <row r="481" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
@@ -21417,6 +21896,7 @@
       <c r="P481" s="1"/>
       <c r="Q481" s="1"/>
       <c r="R481" s="1"/>
+      <c r="S481" s="1"/>
     </row>
     <row r="482" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
@@ -21445,6 +21925,7 @@
       <c r="P482" s="1"/>
       <c r="Q482" s="1"/>
       <c r="R482" s="1"/>
+      <c r="S482" s="1"/>
     </row>
     <row r="483" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
@@ -21473,6 +21954,7 @@
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>
       <c r="R483" s="1"/>
+      <c r="S483" s="1"/>
     </row>
     <row r="484" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
@@ -21501,6 +21983,7 @@
       <c r="P484" s="1"/>
       <c r="Q484" s="1"/>
       <c r="R484" s="1"/>
+      <c r="S484" s="1"/>
     </row>
     <row r="485" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
@@ -21529,6 +22012,7 @@
       <c r="P485" s="1"/>
       <c r="Q485" s="1"/>
       <c r="R485" s="1"/>
+      <c r="S485" s="1"/>
     </row>
     <row r="486" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
@@ -21557,6 +22041,7 @@
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
       <c r="R486" s="1"/>
+      <c r="S486" s="1"/>
     </row>
     <row r="487" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
@@ -21585,6 +22070,7 @@
       <c r="P487" s="1"/>
       <c r="Q487" s="1"/>
       <c r="R487" s="1"/>
+      <c r="S487" s="1"/>
     </row>
     <row r="488" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
@@ -21613,6 +22099,7 @@
       <c r="P488" s="1"/>
       <c r="Q488" s="1"/>
       <c r="R488" s="1"/>
+      <c r="S488" s="1"/>
     </row>
     <row r="489" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
@@ -21641,6 +22128,7 @@
       <c r="P489" s="1"/>
       <c r="Q489" s="1"/>
       <c r="R489" s="1"/>
+      <c r="S489" s="1"/>
     </row>
     <row r="490" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
@@ -21669,6 +22157,7 @@
       <c r="P490" s="1"/>
       <c r="Q490" s="1"/>
       <c r="R490" s="1"/>
+      <c r="S490" s="1"/>
     </row>
     <row r="491" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
@@ -21697,6 +22186,7 @@
       <c r="P491" s="1"/>
       <c r="Q491" s="1"/>
       <c r="R491" s="1"/>
+      <c r="S491" s="1"/>
     </row>
     <row r="492" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
@@ -21725,6 +22215,7 @@
       <c r="P492" s="1"/>
       <c r="Q492" s="1"/>
       <c r="R492" s="1"/>
+      <c r="S492" s="1"/>
     </row>
     <row r="493" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
@@ -21753,6 +22244,7 @@
       <c r="P493" s="1"/>
       <c r="Q493" s="1"/>
       <c r="R493" s="1"/>
+      <c r="S493" s="1"/>
     </row>
     <row r="494" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
@@ -21781,6 +22273,7 @@
       <c r="P494" s="1"/>
       <c r="Q494" s="1"/>
       <c r="R494" s="1"/>
+      <c r="S494" s="1"/>
     </row>
     <row r="495" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
@@ -21809,6 +22302,7 @@
       <c r="P495" s="1"/>
       <c r="Q495" s="1"/>
       <c r="R495" s="1"/>
+      <c r="S495" s="1"/>
     </row>
     <row r="496" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
@@ -21837,6 +22331,7 @@
       <c r="P496" s="1"/>
       <c r="Q496" s="1"/>
       <c r="R496" s="1"/>
+      <c r="S496" s="1"/>
     </row>
     <row r="497" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
@@ -21865,6 +22360,7 @@
       <c r="P497" s="1"/>
       <c r="Q497" s="1"/>
       <c r="R497" s="1"/>
+      <c r="S497" s="1"/>
     </row>
     <row r="498" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
@@ -21893,6 +22389,7 @@
       <c r="P498" s="1"/>
       <c r="Q498" s="1"/>
       <c r="R498" s="1"/>
+      <c r="S498" s="1"/>
     </row>
     <row r="499" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
@@ -21921,6 +22418,7 @@
       <c r="P499" s="1"/>
       <c r="Q499" s="1"/>
       <c r="R499" s="1"/>
+      <c r="S499" s="1"/>
     </row>
     <row r="500" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
@@ -21949,6 +22447,7 @@
       <c r="P500" s="1"/>
       <c r="Q500" s="1"/>
       <c r="R500" s="1"/>
+      <c r="S500" s="1"/>
     </row>
     <row r="501" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
@@ -21977,6 +22476,7 @@
       <c r="P501" s="1"/>
       <c r="Q501" s="1"/>
       <c r="R501" s="1"/>
+      <c r="S501" s="1"/>
     </row>
     <row r="502" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
@@ -22005,6 +22505,7 @@
       <c r="P502" s="1"/>
       <c r="Q502" s="1"/>
       <c r="R502" s="1"/>
+      <c r="S502" s="1"/>
     </row>
     <row r="503" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
@@ -22033,6 +22534,7 @@
       <c r="P503" s="1"/>
       <c r="Q503" s="1"/>
       <c r="R503" s="1"/>
+      <c r="S503" s="1"/>
     </row>
     <row r="504" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
@@ -22061,6 +22563,7 @@
       <c r="P504" s="1"/>
       <c r="Q504" s="1"/>
       <c r="R504" s="1"/>
+      <c r="S504" s="1"/>
     </row>
     <row r="505" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
@@ -22089,6 +22592,7 @@
       <c r="P505" s="1"/>
       <c r="Q505" s="1"/>
       <c r="R505" s="1"/>
+      <c r="S505" s="1"/>
     </row>
     <row r="506" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
@@ -22117,6 +22621,7 @@
       <c r="P506" s="1"/>
       <c r="Q506" s="1"/>
       <c r="R506" s="1"/>
+      <c r="S506" s="1"/>
     </row>
     <row r="507" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
@@ -22145,6 +22650,7 @@
       <c r="P507" s="1"/>
       <c r="Q507" s="1"/>
       <c r="R507" s="1"/>
+      <c r="S507" s="1"/>
     </row>
     <row r="508" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
@@ -22173,6 +22679,7 @@
       <c r="P508" s="1"/>
       <c r="Q508" s="1"/>
       <c r="R508" s="1"/>
+      <c r="S508" s="1"/>
     </row>
     <row r="509" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
@@ -22201,6 +22708,7 @@
       <c r="P509" s="1"/>
       <c r="Q509" s="1"/>
       <c r="R509" s="1"/>
+      <c r="S509" s="1"/>
     </row>
     <row r="510" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
@@ -22229,6 +22737,7 @@
       <c r="P510" s="1"/>
       <c r="Q510" s="1"/>
       <c r="R510" s="1"/>
+      <c r="S510" s="1"/>
     </row>
     <row r="511" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
@@ -22257,6 +22766,7 @@
       <c r="P511" s="1"/>
       <c r="Q511" s="1"/>
       <c r="R511" s="1"/>
+      <c r="S511" s="1"/>
     </row>
     <row r="512" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
@@ -22285,6 +22795,7 @@
       <c r="P512" s="1"/>
       <c r="Q512" s="1"/>
       <c r="R512" s="1"/>
+      <c r="S512" s="1"/>
     </row>
     <row r="513" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
@@ -22313,6 +22824,7 @@
       <c r="P513" s="1"/>
       <c r="Q513" s="1"/>
       <c r="R513" s="1"/>
+      <c r="S513" s="1"/>
     </row>
     <row r="514" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
@@ -22341,6 +22853,7 @@
       <c r="P514" s="1"/>
       <c r="Q514" s="1"/>
       <c r="R514" s="1"/>
+      <c r="S514" s="1"/>
     </row>
     <row r="515" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
@@ -22369,6 +22882,7 @@
       <c r="P515" s="1"/>
       <c r="Q515" s="1"/>
       <c r="R515" s="1"/>
+      <c r="S515" s="1"/>
     </row>
     <row r="516" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
@@ -22397,6 +22911,7 @@
       <c r="P516" s="1"/>
       <c r="Q516" s="1"/>
       <c r="R516" s="1"/>
+      <c r="S516" s="1"/>
     </row>
     <row r="517" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
@@ -22425,6 +22940,7 @@
       <c r="P517" s="1"/>
       <c r="Q517" s="1"/>
       <c r="R517" s="1"/>
+      <c r="S517" s="1"/>
     </row>
     <row r="518" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
@@ -22453,6 +22969,7 @@
       <c r="P518" s="1"/>
       <c r="Q518" s="1"/>
       <c r="R518" s="1"/>
+      <c r="S518" s="1"/>
     </row>
     <row r="519" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
@@ -22481,6 +22998,7 @@
       <c r="P519" s="1"/>
       <c r="Q519" s="1"/>
       <c r="R519" s="1"/>
+      <c r="S519" s="1"/>
     </row>
     <row r="520" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
@@ -22509,6 +23027,7 @@
       <c r="P520" s="1"/>
       <c r="Q520" s="1"/>
       <c r="R520" s="1"/>
+      <c r="S520" s="1"/>
     </row>
     <row r="521" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
@@ -22537,6 +23056,7 @@
       <c r="P521" s="1"/>
       <c r="Q521" s="1"/>
       <c r="R521" s="1"/>
+      <c r="S521" s="1"/>
     </row>
     <row r="522" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
@@ -22565,6 +23085,7 @@
       <c r="P522" s="1"/>
       <c r="Q522" s="1"/>
       <c r="R522" s="1"/>
+      <c r="S522" s="1"/>
     </row>
     <row r="523" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
@@ -22593,6 +23114,7 @@
       <c r="P523" s="1"/>
       <c r="Q523" s="1"/>
       <c r="R523" s="1"/>
+      <c r="S523" s="1"/>
     </row>
     <row r="524" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
@@ -22621,6 +23143,7 @@
       <c r="P524" s="1"/>
       <c r="Q524" s="1"/>
       <c r="R524" s="1"/>
+      <c r="S524" s="1"/>
     </row>
     <row r="525" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
@@ -22649,6 +23172,7 @@
       <c r="P525" s="1"/>
       <c r="Q525" s="1"/>
       <c r="R525" s="1"/>
+      <c r="S525" s="1"/>
     </row>
     <row r="526" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
@@ -22677,6 +23201,7 @@
       <c r="P526" s="1"/>
       <c r="Q526" s="1"/>
       <c r="R526" s="1"/>
+      <c r="S526" s="1"/>
     </row>
     <row r="527" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
@@ -22705,6 +23230,7 @@
       <c r="P527" s="1"/>
       <c r="Q527" s="1"/>
       <c r="R527" s="1"/>
+      <c r="S527" s="1"/>
     </row>
     <row r="528" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
@@ -22733,6 +23259,7 @@
       <c r="P528" s="1"/>
       <c r="Q528" s="1"/>
       <c r="R528" s="1"/>
+      <c r="S528" s="1"/>
     </row>
     <row r="529" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
@@ -22761,6 +23288,7 @@
       <c r="P529" s="1"/>
       <c r="Q529" s="1"/>
       <c r="R529" s="1"/>
+      <c r="S529" s="1"/>
     </row>
     <row r="530" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
@@ -22789,6 +23317,7 @@
       <c r="P530" s="1"/>
       <c r="Q530" s="1"/>
       <c r="R530" s="1"/>
+      <c r="S530" s="1"/>
     </row>
     <row r="531" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
@@ -22817,6 +23346,7 @@
       <c r="P531" s="1"/>
       <c r="Q531" s="1"/>
       <c r="R531" s="1"/>
+      <c r="S531" s="1"/>
     </row>
     <row r="532" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
@@ -22845,6 +23375,7 @@
       <c r="P532" s="1"/>
       <c r="Q532" s="1"/>
       <c r="R532" s="1"/>
+      <c r="S532" s="1"/>
     </row>
     <row r="533" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
@@ -22873,6 +23404,7 @@
       <c r="P533" s="1"/>
       <c r="Q533" s="1"/>
       <c r="R533" s="1"/>
+      <c r="S533" s="1"/>
     </row>
     <row r="534" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
@@ -22901,6 +23433,7 @@
       <c r="P534" s="1"/>
       <c r="Q534" s="1"/>
       <c r="R534" s="1"/>
+      <c r="S534" s="1"/>
     </row>
     <row r="535" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
@@ -22929,6 +23462,7 @@
       <c r="P535" s="1"/>
       <c r="Q535" s="1"/>
       <c r="R535" s="1"/>
+      <c r="S535" s="1"/>
     </row>
     <row r="536" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
@@ -22957,6 +23491,7 @@
       <c r="P536" s="1"/>
       <c r="Q536" s="1"/>
       <c r="R536" s="1"/>
+      <c r="S536" s="1"/>
     </row>
     <row r="537" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
@@ -22985,6 +23520,7 @@
       <c r="P537" s="1"/>
       <c r="Q537" s="1"/>
       <c r="R537" s="1"/>
+      <c r="S537" s="1"/>
     </row>
     <row r="538" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
@@ -23013,6 +23549,7 @@
       <c r="P538" s="1"/>
       <c r="Q538" s="1"/>
       <c r="R538" s="1"/>
+      <c r="S538" s="1"/>
     </row>
     <row r="539" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
@@ -23041,6 +23578,7 @@
       <c r="P539" s="1"/>
       <c r="Q539" s="1"/>
       <c r="R539" s="1"/>
+      <c r="S539" s="1"/>
     </row>
     <row r="540" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
@@ -23069,6 +23607,7 @@
       <c r="P540" s="1"/>
       <c r="Q540" s="1"/>
       <c r="R540" s="1"/>
+      <c r="S540" s="1"/>
     </row>
     <row r="541" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
@@ -23097,6 +23636,7 @@
       <c r="P541" s="1"/>
       <c r="Q541" s="1"/>
       <c r="R541" s="1"/>
+      <c r="S541" s="1"/>
     </row>
     <row r="542" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
@@ -23125,6 +23665,7 @@
       <c r="P542" s="1"/>
       <c r="Q542" s="1"/>
       <c r="R542" s="1"/>
+      <c r="S542" s="1"/>
     </row>
     <row r="543" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
@@ -23153,6 +23694,7 @@
       <c r="P543" s="1"/>
       <c r="Q543" s="1"/>
       <c r="R543" s="1"/>
+      <c r="S543" s="1"/>
     </row>
     <row r="544" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
@@ -23181,6 +23723,7 @@
       <c r="P544" s="1"/>
       <c r="Q544" s="1"/>
       <c r="R544" s="1"/>
+      <c r="S544" s="1"/>
     </row>
     <row r="545" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
@@ -23209,6 +23752,7 @@
       <c r="P545" s="1"/>
       <c r="Q545" s="1"/>
       <c r="R545" s="1"/>
+      <c r="S545" s="1"/>
     </row>
     <row r="546" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
@@ -23237,6 +23781,7 @@
       <c r="P546" s="1"/>
       <c r="Q546" s="1"/>
       <c r="R546" s="1"/>
+      <c r="S546" s="1"/>
     </row>
     <row r="547" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
@@ -23265,6 +23810,7 @@
       <c r="P547" s="1"/>
       <c r="Q547" s="1"/>
       <c r="R547" s="1"/>
+      <c r="S547" s="1"/>
     </row>
     <row r="548" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
@@ -23293,6 +23839,7 @@
       <c r="P548" s="1"/>
       <c r="Q548" s="1"/>
       <c r="R548" s="1"/>
+      <c r="S548" s="1"/>
     </row>
     <row r="549" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
@@ -23321,6 +23868,7 @@
       <c r="P549" s="1"/>
       <c r="Q549" s="1"/>
       <c r="R549" s="1"/>
+      <c r="S549" s="1"/>
     </row>
     <row r="550" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
@@ -23349,6 +23897,7 @@
       <c r="P550" s="1"/>
       <c r="Q550" s="1"/>
       <c r="R550" s="1"/>
+      <c r="S550" s="1"/>
     </row>
     <row r="551" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
@@ -23377,6 +23926,7 @@
       <c r="P551" s="1"/>
       <c r="Q551" s="1"/>
       <c r="R551" s="1"/>
+      <c r="S551" s="1"/>
     </row>
     <row r="552" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
@@ -23405,6 +23955,7 @@
       <c r="P552" s="1"/>
       <c r="Q552" s="1"/>
       <c r="R552" s="1"/>
+      <c r="S552" s="1"/>
     </row>
     <row r="553" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
@@ -23433,6 +23984,7 @@
       <c r="P553" s="1"/>
       <c r="Q553" s="1"/>
       <c r="R553" s="1"/>
+      <c r="S553" s="1"/>
     </row>
     <row r="554" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
@@ -23461,6 +24013,7 @@
       <c r="P554" s="1"/>
       <c r="Q554" s="1"/>
       <c r="R554" s="1"/>
+      <c r="S554" s="1"/>
     </row>
     <row r="555" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
@@ -23489,6 +24042,7 @@
       <c r="P555" s="1"/>
       <c r="Q555" s="1"/>
       <c r="R555" s="1"/>
+      <c r="S555" s="1"/>
     </row>
     <row r="556" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
@@ -23517,6 +24071,7 @@
       <c r="P556" s="1"/>
       <c r="Q556" s="1"/>
       <c r="R556" s="1"/>
+      <c r="S556" s="1"/>
     </row>
     <row r="557" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
@@ -23545,6 +24100,7 @@
       <c r="P557" s="1"/>
       <c r="Q557" s="1"/>
       <c r="R557" s="1"/>
+      <c r="S557" s="1"/>
     </row>
     <row r="558" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
@@ -23573,6 +24129,7 @@
       <c r="P558" s="1"/>
       <c r="Q558" s="1"/>
       <c r="R558" s="1"/>
+      <c r="S558" s="1"/>
     </row>
     <row r="559" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
@@ -23601,6 +24158,7 @@
       <c r="P559" s="1"/>
       <c r="Q559" s="1"/>
       <c r="R559" s="1"/>
+      <c r="S559" s="1"/>
     </row>
     <row r="560" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
@@ -23629,6 +24187,7 @@
       <c r="P560" s="1"/>
       <c r="Q560" s="1"/>
       <c r="R560" s="1"/>
+      <c r="S560" s="1"/>
     </row>
     <row r="561" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
@@ -23657,6 +24216,7 @@
       <c r="P561" s="1"/>
       <c r="Q561" s="1"/>
       <c r="R561" s="1"/>
+      <c r="S561" s="1"/>
     </row>
     <row r="562" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
@@ -23685,6 +24245,7 @@
       <c r="P562" s="1"/>
       <c r="Q562" s="1"/>
       <c r="R562" s="1"/>
+      <c r="S562" s="1"/>
     </row>
     <row r="563" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="s">
@@ -23713,6 +24274,7 @@
       <c r="P563" s="1"/>
       <c r="Q563" s="1"/>
       <c r="R563" s="1"/>
+      <c r="S563" s="1"/>
     </row>
     <row r="564" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
@@ -23741,6 +24303,7 @@
       <c r="P564" s="1"/>
       <c r="Q564" s="1"/>
       <c r="R564" s="1"/>
+      <c r="S564" s="1"/>
     </row>
     <row r="565" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
@@ -23769,6 +24332,7 @@
       <c r="P565" s="1"/>
       <c r="Q565" s="1"/>
       <c r="R565" s="1"/>
+      <c r="S565" s="1"/>
     </row>
     <row r="566" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
@@ -23797,6 +24361,7 @@
       <c r="P566" s="1"/>
       <c r="Q566" s="1"/>
       <c r="R566" s="1"/>
+      <c r="S566" s="1"/>
     </row>
     <row r="567" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="s">
@@ -23825,6 +24390,7 @@
       <c r="P567" s="1"/>
       <c r="Q567" s="1"/>
       <c r="R567" s="1"/>
+      <c r="S567" s="1"/>
     </row>
     <row r="568" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
@@ -23853,6 +24419,7 @@
       <c r="P568" s="1"/>
       <c r="Q568" s="1"/>
       <c r="R568" s="1"/>
+      <c r="S568" s="1"/>
     </row>
     <row r="569" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="s">
@@ -23881,6 +24448,7 @@
       <c r="P569" s="1"/>
       <c r="Q569" s="1"/>
       <c r="R569" s="1"/>
+      <c r="S569" s="1"/>
     </row>
     <row r="570" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
@@ -23909,6 +24477,7 @@
       <c r="P570" s="1"/>
       <c r="Q570" s="1"/>
       <c r="R570" s="1"/>
+      <c r="S570" s="1"/>
     </row>
     <row r="571" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="s">
@@ -23937,6 +24506,7 @@
       <c r="P571" s="1"/>
       <c r="Q571" s="1"/>
       <c r="R571" s="1"/>
+      <c r="S571" s="1"/>
     </row>
     <row r="572" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="s">
@@ -23965,6 +24535,7 @@
       <c r="P572" s="1"/>
       <c r="Q572" s="1"/>
       <c r="R572" s="1"/>
+      <c r="S572" s="1"/>
     </row>
     <row r="573" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="s">
@@ -23993,6 +24564,7 @@
       <c r="P573" s="1"/>
       <c r="Q573" s="1"/>
       <c r="R573" s="1"/>
+      <c r="S573" s="1"/>
     </row>
     <row r="574" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
@@ -24021,6 +24593,7 @@
       <c r="P574" s="1"/>
       <c r="Q574" s="1"/>
       <c r="R574" s="1"/>
+      <c r="S574" s="1"/>
     </row>
     <row r="575" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
@@ -24049,6 +24622,7 @@
       <c r="P575" s="1"/>
       <c r="Q575" s="1"/>
       <c r="R575" s="1"/>
+      <c r="S575" s="1"/>
     </row>
     <row r="576" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
@@ -24077,6 +24651,7 @@
       <c r="P576" s="1"/>
       <c r="Q576" s="1"/>
       <c r="R576" s="1"/>
+      <c r="S576" s="1"/>
     </row>
     <row r="577" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
@@ -24105,6 +24680,7 @@
       <c r="P577" s="1"/>
       <c r="Q577" s="1"/>
       <c r="R577" s="1"/>
+      <c r="S577" s="1"/>
     </row>
     <row r="578" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
@@ -24133,6 +24709,7 @@
       <c r="P578" s="1"/>
       <c r="Q578" s="1"/>
       <c r="R578" s="1"/>
+      <c r="S578" s="1"/>
     </row>
     <row r="579" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
@@ -24161,6 +24738,7 @@
       <c r="P579" s="1"/>
       <c r="Q579" s="1"/>
       <c r="R579" s="1"/>
+      <c r="S579" s="1"/>
     </row>
     <row r="580" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
@@ -24189,6 +24767,7 @@
       <c r="P580" s="1"/>
       <c r="Q580" s="1"/>
       <c r="R580" s="1"/>
+      <c r="S580" s="1"/>
     </row>
     <row r="581" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="s">
@@ -24217,6 +24796,7 @@
       <c r="P581" s="1"/>
       <c r="Q581" s="1"/>
       <c r="R581" s="1"/>
+      <c r="S581" s="1"/>
     </row>
     <row r="582" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
@@ -24245,6 +24825,7 @@
       <c r="P582" s="1"/>
       <c r="Q582" s="1"/>
       <c r="R582" s="1"/>
+      <c r="S582" s="1"/>
     </row>
     <row r="583" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
@@ -24273,6 +24854,7 @@
       <c r="P583" s="1"/>
       <c r="Q583" s="1"/>
       <c r="R583" s="1"/>
+      <c r="S583" s="1"/>
     </row>
     <row r="584" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="s">
@@ -24301,6 +24883,7 @@
       <c r="P584" s="1"/>
       <c r="Q584" s="1"/>
       <c r="R584" s="1"/>
+      <c r="S584" s="1"/>
     </row>
     <row r="585" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
@@ -24329,6 +24912,7 @@
       <c r="P585" s="1"/>
       <c r="Q585" s="1"/>
       <c r="R585" s="1"/>
+      <c r="S585" s="1"/>
     </row>
     <row r="586" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
@@ -24357,6 +24941,7 @@
       <c r="P586" s="1"/>
       <c r="Q586" s="1"/>
       <c r="R586" s="1"/>
+      <c r="S586" s="1"/>
     </row>
     <row r="587" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="s">
@@ -24385,6 +24970,7 @@
       <c r="P587" s="1"/>
       <c r="Q587" s="1"/>
       <c r="R587" s="1"/>
+      <c r="S587" s="1"/>
     </row>
     <row r="588" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="s">
@@ -24413,6 +24999,7 @@
       <c r="P588" s="1"/>
       <c r="Q588" s="1"/>
       <c r="R588" s="1"/>
+      <c r="S588" s="1"/>
     </row>
     <row r="589" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="s">
@@ -24441,6 +25028,7 @@
       <c r="P589" s="1"/>
       <c r="Q589" s="1"/>
       <c r="R589" s="1"/>
+      <c r="S589" s="1"/>
     </row>
     <row r="590" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="s">
@@ -24469,6 +25057,7 @@
       <c r="P590" s="1"/>
       <c r="Q590" s="1"/>
       <c r="R590" s="1"/>
+      <c r="S590" s="1"/>
     </row>
     <row r="591" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="s">
@@ -24497,6 +25086,7 @@
       <c r="P591" s="1"/>
       <c r="Q591" s="1"/>
       <c r="R591" s="1"/>
+      <c r="S591" s="1"/>
     </row>
     <row r="592" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="s">
@@ -24525,6 +25115,7 @@
       <c r="P592" s="1"/>
       <c r="Q592" s="1"/>
       <c r="R592" s="1"/>
+      <c r="S592" s="1"/>
     </row>
     <row r="593" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="s">
@@ -24553,6 +25144,7 @@
       <c r="P593" s="1"/>
       <c r="Q593" s="1"/>
       <c r="R593" s="1"/>
+      <c r="S593" s="1"/>
     </row>
     <row r="594" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
@@ -24581,6 +25173,7 @@
       <c r="P594" s="1"/>
       <c r="Q594" s="1"/>
       <c r="R594" s="1"/>
+      <c r="S594" s="1"/>
     </row>
     <row r="595" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
@@ -24609,6 +25202,7 @@
       <c r="P595" s="1"/>
       <c r="Q595" s="1"/>
       <c r="R595" s="1"/>
+      <c r="S595" s="1"/>
     </row>
     <row r="596" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
@@ -24637,6 +25231,7 @@
       <c r="P596" s="1"/>
       <c r="Q596" s="1"/>
       <c r="R596" s="1"/>
+      <c r="S596" s="1"/>
     </row>
     <row r="597" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="s">
@@ -24665,6 +25260,7 @@
       <c r="P597" s="1"/>
       <c r="Q597" s="1"/>
       <c r="R597" s="1"/>
+      <c r="S597" s="1"/>
     </row>
     <row r="598" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
@@ -24693,6 +25289,7 @@
       <c r="P598" s="1"/>
       <c r="Q598" s="1"/>
       <c r="R598" s="1"/>
+      <c r="S598" s="1"/>
     </row>
     <row r="599" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
@@ -24721,6 +25318,7 @@
       <c r="P599" s="1"/>
       <c r="Q599" s="1"/>
       <c r="R599" s="1"/>
+      <c r="S599" s="1"/>
     </row>
     <row r="600" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
@@ -24749,6 +25347,7 @@
       <c r="P600" s="1"/>
       <c r="Q600" s="1"/>
       <c r="R600" s="1"/>
+      <c r="S600" s="1"/>
     </row>
     <row r="601" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
@@ -24777,6 +25376,7 @@
       <c r="P601" s="1"/>
       <c r="Q601" s="1"/>
       <c r="R601" s="1"/>
+      <c r="S601" s="1"/>
     </row>
     <row r="602" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
@@ -24805,6 +25405,7 @@
       <c r="P602" s="1"/>
       <c r="Q602" s="1"/>
       <c r="R602" s="1"/>
+      <c r="S602" s="1"/>
     </row>
     <row r="603" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
@@ -24833,6 +25434,7 @@
       <c r="P603" s="1"/>
       <c r="Q603" s="1"/>
       <c r="R603" s="1"/>
+      <c r="S603" s="1"/>
     </row>
     <row r="604" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
@@ -24861,6 +25463,7 @@
       <c r="P604" s="1"/>
       <c r="Q604" s="1"/>
       <c r="R604" s="1"/>
+      <c r="S604" s="1"/>
     </row>
     <row r="605" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="s">
@@ -24889,6 +25492,7 @@
       <c r="P605" s="1"/>
       <c r="Q605" s="1"/>
       <c r="R605" s="1"/>
+      <c r="S605" s="1"/>
     </row>
     <row r="606" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="s">
@@ -24917,6 +25521,7 @@
       <c r="P606" s="1"/>
       <c r="Q606" s="1"/>
       <c r="R606" s="1"/>
+      <c r="S606" s="1"/>
     </row>
     <row r="607" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="s">
@@ -24945,6 +25550,7 @@
       <c r="P607" s="1"/>
       <c r="Q607" s="1"/>
       <c r="R607" s="1"/>
+      <c r="S607" s="1"/>
     </row>
     <row r="608" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="s">
@@ -24973,6 +25579,7 @@
       <c r="P608" s="1"/>
       <c r="Q608" s="1"/>
       <c r="R608" s="1"/>
+      <c r="S608" s="1"/>
     </row>
     <row r="609" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="s">
@@ -25001,6 +25608,7 @@
       <c r="P609" s="1"/>
       <c r="Q609" s="1"/>
       <c r="R609" s="1"/>
+      <c r="S609" s="1"/>
     </row>
     <row r="610" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="s">
@@ -25029,6 +25637,7 @@
       <c r="P610" s="1"/>
       <c r="Q610" s="1"/>
       <c r="R610" s="1"/>
+      <c r="S610" s="1"/>
     </row>
     <row r="611" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
@@ -25057,6 +25666,7 @@
       <c r="P611" s="1"/>
       <c r="Q611" s="1"/>
       <c r="R611" s="1"/>
+      <c r="S611" s="1"/>
     </row>
     <row r="612" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="s">
@@ -25085,6 +25695,7 @@
       <c r="P612" s="1"/>
       <c r="Q612" s="1"/>
       <c r="R612" s="1"/>
+      <c r="S612" s="1"/>
     </row>
     <row r="613" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
@@ -25113,6 +25724,7 @@
       <c r="P613" s="1"/>
       <c r="Q613" s="1"/>
       <c r="R613" s="1"/>
+      <c r="S613" s="1"/>
     </row>
     <row r="614" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
@@ -25141,6 +25753,7 @@
       <c r="P614" s="1"/>
       <c r="Q614" s="1"/>
       <c r="R614" s="1"/>
+      <c r="S614" s="1"/>
     </row>
     <row r="615" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
@@ -25169,6 +25782,7 @@
       <c r="P615" s="1"/>
       <c r="Q615" s="1"/>
       <c r="R615" s="1"/>
+      <c r="S615" s="1"/>
     </row>
     <row r="616" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
@@ -25197,6 +25811,7 @@
       <c r="P616" s="1"/>
       <c r="Q616" s="1"/>
       <c r="R616" s="1"/>
+      <c r="S616" s="1"/>
     </row>
     <row r="617" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
@@ -25225,6 +25840,7 @@
       <c r="P617" s="1"/>
       <c r="Q617" s="1"/>
       <c r="R617" s="1"/>
+      <c r="S617" s="1"/>
     </row>
     <row r="618" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="s">
@@ -25253,6 +25869,7 @@
       <c r="P618" s="1"/>
       <c r="Q618" s="1"/>
       <c r="R618" s="1"/>
+      <c r="S618" s="1"/>
     </row>
     <row r="619" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
@@ -25281,6 +25898,7 @@
       <c r="P619" s="1"/>
       <c r="Q619" s="1"/>
       <c r="R619" s="1"/>
+      <c r="S619" s="1"/>
     </row>
     <row r="620" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
@@ -25309,6 +25927,7 @@
       <c r="P620" s="1"/>
       <c r="Q620" s="1"/>
       <c r="R620" s="1"/>
+      <c r="S620" s="1"/>
     </row>
     <row r="621" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
@@ -25337,6 +25956,7 @@
       <c r="P621" s="1"/>
       <c r="Q621" s="1"/>
       <c r="R621" s="1"/>
+      <c r="S621" s="1"/>
     </row>
     <row r="622" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
@@ -25365,6 +25985,7 @@
       <c r="P622" s="1"/>
       <c r="Q622" s="1"/>
       <c r="R622" s="1"/>
+      <c r="S622" s="1"/>
     </row>
     <row r="623" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
@@ -25393,6 +26014,7 @@
       <c r="P623" s="1"/>
       <c r="Q623" s="1"/>
       <c r="R623" s="1"/>
+      <c r="S623" s="1"/>
     </row>
     <row r="624" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
@@ -25421,6 +26043,7 @@
       <c r="P624" s="1"/>
       <c r="Q624" s="1"/>
       <c r="R624" s="1"/>
+      <c r="S624" s="1"/>
     </row>
     <row r="625" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
@@ -25449,6 +26072,7 @@
       <c r="P625" s="1"/>
       <c r="Q625" s="1"/>
       <c r="R625" s="1"/>
+      <c r="S625" s="1"/>
     </row>
     <row r="626" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
@@ -25477,6 +26101,7 @@
       <c r="P626" s="1"/>
       <c r="Q626" s="1"/>
       <c r="R626" s="1"/>
+      <c r="S626" s="1"/>
     </row>
     <row r="627" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
@@ -25505,6 +26130,7 @@
       <c r="P627" s="1"/>
       <c r="Q627" s="1"/>
       <c r="R627" s="1"/>
+      <c r="S627" s="1"/>
     </row>
     <row r="628" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
@@ -25533,6 +26159,7 @@
       <c r="P628" s="1"/>
       <c r="Q628" s="1"/>
       <c r="R628" s="1"/>
+      <c r="S628" s="1"/>
     </row>
     <row r="629" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
@@ -25561,6 +26188,7 @@
       <c r="P629" s="1"/>
       <c r="Q629" s="1"/>
       <c r="R629" s="1"/>
+      <c r="S629" s="1"/>
     </row>
     <row r="630" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
@@ -25589,6 +26217,7 @@
       <c r="P630" s="1"/>
       <c r="Q630" s="1"/>
       <c r="R630" s="1"/>
+      <c r="S630" s="1"/>
     </row>
     <row r="631" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
@@ -25617,6 +26246,7 @@
       <c r="P631" s="1"/>
       <c r="Q631" s="1"/>
       <c r="R631" s="1"/>
+      <c r="S631" s="1"/>
     </row>
     <row r="632" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
@@ -25645,6 +26275,7 @@
       <c r="P632" s="1"/>
       <c r="Q632" s="1"/>
       <c r="R632" s="1"/>
+      <c r="S632" s="1"/>
     </row>
     <row r="633" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
@@ -25673,6 +26304,7 @@
       <c r="P633" s="1"/>
       <c r="Q633" s="1"/>
       <c r="R633" s="1"/>
+      <c r="S633" s="1"/>
     </row>
     <row r="634" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
@@ -25701,6 +26333,7 @@
       <c r="P634" s="1"/>
       <c r="Q634" s="1"/>
       <c r="R634" s="1"/>
+      <c r="S634" s="1"/>
     </row>
     <row r="635" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
@@ -25729,6 +26362,7 @@
       <c r="P635" s="1"/>
       <c r="Q635" s="1"/>
       <c r="R635" s="1"/>
+      <c r="S635" s="1"/>
     </row>
     <row r="636" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
@@ -25757,6 +26391,7 @@
       <c r="P636" s="1"/>
       <c r="Q636" s="1"/>
       <c r="R636" s="1"/>
+      <c r="S636" s="1"/>
     </row>
     <row r="637" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
@@ -25785,6 +26420,7 @@
       <c r="P637" s="1"/>
       <c r="Q637" s="1"/>
       <c r="R637" s="1"/>
+      <c r="S637" s="1"/>
     </row>
     <row r="638" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
@@ -25813,6 +26449,7 @@
       <c r="P638" s="1"/>
       <c r="Q638" s="1"/>
       <c r="R638" s="1"/>
+      <c r="S638" s="1"/>
     </row>
     <row r="639" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
@@ -25841,6 +26478,7 @@
       <c r="P639" s="1"/>
       <c r="Q639" s="1"/>
       <c r="R639" s="1"/>
+      <c r="S639" s="1"/>
     </row>
     <row r="640" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
@@ -25869,6 +26507,7 @@
       <c r="P640" s="1"/>
       <c r="Q640" s="1"/>
       <c r="R640" s="1"/>
+      <c r="S640" s="1"/>
     </row>
     <row r="641" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
@@ -25897,6 +26536,7 @@
       <c r="P641" s="1"/>
       <c r="Q641" s="1"/>
       <c r="R641" s="1"/>
+      <c r="S641" s="1"/>
     </row>
     <row r="642" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
@@ -25925,6 +26565,7 @@
       <c r="P642" s="1"/>
       <c r="Q642" s="1"/>
       <c r="R642" s="1"/>
+      <c r="S642" s="1"/>
     </row>
     <row r="643" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
@@ -25953,6 +26594,7 @@
       <c r="P643" s="1"/>
       <c r="Q643" s="1"/>
       <c r="R643" s="1"/>
+      <c r="S643" s="1"/>
     </row>
     <row r="644" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
@@ -25981,6 +26623,7 @@
       <c r="P644" s="1"/>
       <c r="Q644" s="1"/>
       <c r="R644" s="1"/>
+      <c r="S644" s="1"/>
     </row>
     <row r="645" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
@@ -26009,6 +26652,7 @@
       <c r="P645" s="1"/>
       <c r="Q645" s="1"/>
       <c r="R645" s="1"/>
+      <c r="S645" s="1"/>
     </row>
     <row r="646" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
@@ -26037,6 +26681,7 @@
       <c r="P646" s="1"/>
       <c r="Q646" s="1"/>
       <c r="R646" s="1"/>
+      <c r="S646" s="1"/>
     </row>
     <row r="647" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
@@ -26065,6 +26710,7 @@
       <c r="P647" s="1"/>
       <c r="Q647" s="1"/>
       <c r="R647" s="1"/>
+      <c r="S647" s="1"/>
     </row>
     <row r="648" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
@@ -26093,6 +26739,7 @@
       <c r="P648" s="1"/>
       <c r="Q648" s="1"/>
       <c r="R648" s="1"/>
+      <c r="S648" s="1"/>
     </row>
     <row r="649" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
@@ -26121,6 +26768,7 @@
       <c r="P649" s="1"/>
       <c r="Q649" s="1"/>
       <c r="R649" s="1"/>
+      <c r="S649" s="1"/>
     </row>
     <row r="650" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
@@ -26149,6 +26797,7 @@
       <c r="P650" s="1"/>
       <c r="Q650" s="1"/>
       <c r="R650" s="1"/>
+      <c r="S650" s="1"/>
     </row>
     <row r="651" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
@@ -26177,6 +26826,7 @@
       <c r="P651" s="1"/>
       <c r="Q651" s="1"/>
       <c r="R651" s="1"/>
+      <c r="S651" s="1"/>
     </row>
     <row r="652" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
@@ -26205,6 +26855,7 @@
       <c r="P652" s="1"/>
       <c r="Q652" s="1"/>
       <c r="R652" s="1"/>
+      <c r="S652" s="1"/>
     </row>
     <row r="653" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
@@ -26233,6 +26884,7 @@
       <c r="P653" s="1"/>
       <c r="Q653" s="1"/>
       <c r="R653" s="1"/>
+      <c r="S653" s="1"/>
     </row>
     <row r="654" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
@@ -26261,6 +26913,7 @@
       <c r="P654" s="1"/>
       <c r="Q654" s="1"/>
       <c r="R654" s="1"/>
+      <c r="S654" s="1"/>
     </row>
     <row r="655" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
@@ -26289,6 +26942,7 @@
       <c r="P655" s="1"/>
       <c r="Q655" s="1"/>
       <c r="R655" s="1"/>
+      <c r="S655" s="1"/>
     </row>
     <row r="656" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
@@ -26317,6 +26971,7 @@
       <c r="P656" s="1"/>
       <c r="Q656" s="1"/>
       <c r="R656" s="1"/>
+      <c r="S656" s="1"/>
     </row>
     <row r="657" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
@@ -26345,6 +27000,7 @@
       <c r="P657" s="1"/>
       <c r="Q657" s="1"/>
       <c r="R657" s="1"/>
+      <c r="S657" s="1"/>
     </row>
     <row r="658" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="s">
@@ -26373,6 +27029,7 @@
       <c r="P658" s="1"/>
       <c r="Q658" s="1"/>
       <c r="R658" s="1"/>
+      <c r="S658" s="1"/>
     </row>
     <row r="659" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
@@ -26401,6 +27058,7 @@
       <c r="P659" s="1"/>
       <c r="Q659" s="1"/>
       <c r="R659" s="1"/>
+      <c r="S659" s="1"/>
     </row>
     <row r="660" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
@@ -26429,6 +27087,7 @@
       <c r="P660" s="1"/>
       <c r="Q660" s="1"/>
       <c r="R660" s="1"/>
+      <c r="S660" s="1"/>
     </row>
     <row r="661" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
@@ -26457,6 +27116,7 @@
       <c r="P661" s="1"/>
       <c r="Q661" s="1"/>
       <c r="R661" s="1"/>
+      <c r="S661" s="1"/>
     </row>
     <row r="662" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="s">
@@ -26485,6 +27145,7 @@
       <c r="P662" s="1"/>
       <c r="Q662" s="1"/>
       <c r="R662" s="1"/>
+      <c r="S662" s="1"/>
     </row>
     <row r="663" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
@@ -26513,6 +27174,7 @@
       <c r="P663" s="1"/>
       <c r="Q663" s="1"/>
       <c r="R663" s="1"/>
+      <c r="S663" s="1"/>
     </row>
     <row r="664" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
@@ -26541,6 +27203,7 @@
       <c r="P664" s="1"/>
       <c r="Q664" s="1"/>
       <c r="R664" s="1"/>
+      <c r="S664" s="1"/>
     </row>
     <row r="665" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
@@ -26569,6 +27232,7 @@
       <c r="P665" s="1"/>
       <c r="Q665" s="1"/>
       <c r="R665" s="1"/>
+      <c r="S665" s="1"/>
     </row>
     <row r="666" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
@@ -26597,6 +27261,7 @@
       <c r="P666" s="1"/>
       <c r="Q666" s="1"/>
       <c r="R666" s="1"/>
+      <c r="S666" s="1"/>
     </row>
     <row r="667" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="s">
@@ -26625,6 +27290,7 @@
       <c r="P667" s="1"/>
       <c r="Q667" s="1"/>
       <c r="R667" s="1"/>
+      <c r="S667" s="1"/>
     </row>
     <row r="668" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="s">
@@ -26653,6 +27319,7 @@
       <c r="P668" s="1"/>
       <c r="Q668" s="1"/>
       <c r="R668" s="1"/>
+      <c r="S668" s="1"/>
     </row>
     <row r="669" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="s">
@@ -26681,6 +27348,7 @@
       <c r="P669" s="1"/>
       <c r="Q669" s="1"/>
       <c r="R669" s="1"/>
+      <c r="S669" s="1"/>
     </row>
     <row r="670" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="s">
@@ -26709,6 +27377,7 @@
       <c r="P670" s="1"/>
       <c r="Q670" s="1"/>
       <c r="R670" s="1"/>
+      <c r="S670" s="1"/>
     </row>
     <row r="671" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="s">
@@ -26737,6 +27406,7 @@
       <c r="P671" s="1"/>
       <c r="Q671" s="1"/>
       <c r="R671" s="1"/>
+      <c r="S671" s="1"/>
     </row>
     <row r="672" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="s">
@@ -26765,6 +27435,7 @@
       <c r="P672" s="1"/>
       <c r="Q672" s="1"/>
       <c r="R672" s="1"/>
+      <c r="S672" s="1"/>
     </row>
     <row r="673" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="s">
@@ -26793,6 +27464,7 @@
       <c r="P673" s="1"/>
       <c r="Q673" s="1"/>
       <c r="R673" s="1"/>
+      <c r="S673" s="1"/>
     </row>
     <row r="674" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="s">
@@ -26821,6 +27493,7 @@
       <c r="P674" s="1"/>
       <c r="Q674" s="1"/>
       <c r="R674" s="1"/>
+      <c r="S674" s="1"/>
     </row>
     <row r="675" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="s">
@@ -26849,6 +27522,7 @@
       <c r="P675" s="1"/>
       <c r="Q675" s="1"/>
       <c r="R675" s="1"/>
+      <c r="S675" s="1"/>
     </row>
     <row r="676" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="s">
@@ -26877,6 +27551,7 @@
       <c r="P676" s="1"/>
       <c r="Q676" s="1"/>
       <c r="R676" s="1"/>
+      <c r="S676" s="1"/>
     </row>
     <row r="677" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="s">
@@ -26905,6 +27580,7 @@
       <c r="P677" s="1"/>
       <c r="Q677" s="1"/>
       <c r="R677" s="1"/>
+      <c r="S677" s="1"/>
     </row>
     <row r="678" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="s">
@@ -26933,6 +27609,7 @@
       <c r="P678" s="1"/>
       <c r="Q678" s="1"/>
       <c r="R678" s="1"/>
+      <c r="S678" s="1"/>
     </row>
     <row r="679" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="s">
@@ -26961,6 +27638,7 @@
       <c r="P679" s="1"/>
       <c r="Q679" s="1"/>
       <c r="R679" s="1"/>
+      <c r="S679" s="1"/>
     </row>
     <row r="680" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="s">
@@ -26989,6 +27667,7 @@
       <c r="P680" s="1"/>
       <c r="Q680" s="1"/>
       <c r="R680" s="1"/>
+      <c r="S680" s="1"/>
     </row>
     <row r="681" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="s">
@@ -27017,6 +27696,7 @@
       <c r="P681" s="1"/>
       <c r="Q681" s="1"/>
       <c r="R681" s="1"/>
+      <c r="S681" s="1"/>
     </row>
     <row r="682" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="s">
@@ -27045,6 +27725,7 @@
       <c r="P682" s="1"/>
       <c r="Q682" s="1"/>
       <c r="R682" s="1"/>
+      <c r="S682" s="1"/>
     </row>
     <row r="683" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="s">
@@ -27073,6 +27754,7 @@
       <c r="P683" s="1"/>
       <c r="Q683" s="1"/>
       <c r="R683" s="1"/>
+      <c r="S683" s="1"/>
     </row>
     <row r="684" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="s">
@@ -27101,6 +27783,7 @@
       <c r="P684" s="1"/>
       <c r="Q684" s="1"/>
       <c r="R684" s="1"/>
+      <c r="S684" s="1"/>
     </row>
     <row r="685" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="s">
@@ -27129,6 +27812,7 @@
       <c r="P685" s="1"/>
       <c r="Q685" s="1"/>
       <c r="R685" s="1"/>
+      <c r="S685" s="1"/>
     </row>
     <row r="686" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="s">
@@ -27157,6 +27841,7 @@
       <c r="P686" s="1"/>
       <c r="Q686" s="1"/>
       <c r="R686" s="1"/>
+      <c r="S686" s="1"/>
     </row>
     <row r="687" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="s">
@@ -27185,6 +27870,7 @@
       <c r="P687" s="1"/>
       <c r="Q687" s="1"/>
       <c r="R687" s="1"/>
+      <c r="S687" s="1"/>
     </row>
     <row r="688" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="1" t="s">
@@ -27213,6 +27899,7 @@
       <c r="P688" s="1"/>
       <c r="Q688" s="1"/>
       <c r="R688" s="1"/>
+      <c r="S688" s="1"/>
     </row>
     <row r="689" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="s">
@@ -27241,6 +27928,7 @@
       <c r="P689" s="1"/>
       <c r="Q689" s="1"/>
       <c r="R689" s="1"/>
+      <c r="S689" s="1"/>
     </row>
     <row r="690" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="s">
@@ -27269,6 +27957,7 @@
       <c r="P690" s="1"/>
       <c r="Q690" s="1"/>
       <c r="R690" s="1"/>
+      <c r="S690" s="1"/>
     </row>
     <row r="691" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="s">
@@ -27297,6 +27986,7 @@
       <c r="P691" s="1"/>
       <c r="Q691" s="1"/>
       <c r="R691" s="1"/>
+      <c r="S691" s="1"/>
     </row>
     <row r="692" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="s">
@@ -27325,6 +28015,7 @@
       <c r="P692" s="1"/>
       <c r="Q692" s="1"/>
       <c r="R692" s="1"/>
+      <c r="S692" s="1"/>
     </row>
     <row r="693" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="s">
@@ -27353,6 +28044,7 @@
       <c r="P693" s="1"/>
       <c r="Q693" s="1"/>
       <c r="R693" s="1"/>
+      <c r="S693" s="1"/>
     </row>
     <row r="694" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="s">
@@ -27381,6 +28073,7 @@
       <c r="P694" s="1"/>
       <c r="Q694" s="1"/>
       <c r="R694" s="1"/>
+      <c r="S694" s="1"/>
     </row>
     <row r="695" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="s">
@@ -27409,6 +28102,7 @@
       <c r="P695" s="1"/>
       <c r="Q695" s="1"/>
       <c r="R695" s="1"/>
+      <c r="S695" s="1"/>
     </row>
     <row r="696" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="s">
@@ -27437,6 +28131,7 @@
       <c r="P696" s="1"/>
       <c r="Q696" s="1"/>
       <c r="R696" s="1"/>
+      <c r="S696" s="1"/>
     </row>
     <row r="697" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="s">
@@ -27465,6 +28160,7 @@
       <c r="P697" s="1"/>
       <c r="Q697" s="1"/>
       <c r="R697" s="1"/>
+      <c r="S697" s="1"/>
     </row>
     <row r="698" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="1" t="s">
@@ -27493,6 +28189,7 @@
       <c r="P698" s="1"/>
       <c r="Q698" s="1"/>
       <c r="R698" s="1"/>
+      <c r="S698" s="1"/>
     </row>
     <row r="699" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="1" t="s">
@@ -27521,6 +28218,7 @@
       <c r="P699" s="1"/>
       <c r="Q699" s="1"/>
       <c r="R699" s="1"/>
+      <c r="S699" s="1"/>
     </row>
     <row r="700" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="1" t="s">
@@ -27549,6 +28247,7 @@
       <c r="P700" s="1"/>
       <c r="Q700" s="1"/>
       <c r="R700" s="1"/>
+      <c r="S700" s="1"/>
     </row>
     <row r="701" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="1" t="s">
@@ -27577,6 +28276,7 @@
       <c r="P701" s="1"/>
       <c r="Q701" s="1"/>
       <c r="R701" s="1"/>
+      <c r="S701" s="1"/>
     </row>
     <row r="702" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="1" t="s">
@@ -27605,6 +28305,7 @@
       <c r="P702" s="1"/>
       <c r="Q702" s="1"/>
       <c r="R702" s="1"/>
+      <c r="S702" s="1"/>
     </row>
     <row r="703" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="s">
@@ -27633,6 +28334,7 @@
       <c r="P703" s="1"/>
       <c r="Q703" s="1"/>
       <c r="R703" s="1"/>
+      <c r="S703" s="1"/>
     </row>
     <row r="704" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="1" t="s">
@@ -27661,6 +28363,7 @@
       <c r="P704" s="1"/>
       <c r="Q704" s="1"/>
       <c r="R704" s="1"/>
+      <c r="S704" s="1"/>
     </row>
     <row r="705" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="1" t="s">
@@ -27689,6 +28392,7 @@
       <c r="P705" s="1"/>
       <c r="Q705" s="1"/>
       <c r="R705" s="1"/>
+      <c r="S705" s="1"/>
     </row>
     <row r="706" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="1" t="s">
@@ -27717,6 +28421,7 @@
       <c r="P706" s="1"/>
       <c r="Q706" s="1"/>
       <c r="R706" s="1"/>
+      <c r="S706" s="1"/>
     </row>
     <row r="707" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="s">
@@ -27745,6 +28450,7 @@
       <c r="P707" s="1"/>
       <c r="Q707" s="1"/>
       <c r="R707" s="1"/>
+      <c r="S707" s="1"/>
     </row>
     <row r="708" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="s">
@@ -27773,6 +28479,7 @@
       <c r="P708" s="1"/>
       <c r="Q708" s="1"/>
       <c r="R708" s="1"/>
+      <c r="S708" s="1"/>
     </row>
     <row r="709" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="1" t="s">
@@ -27801,6 +28508,7 @@
       <c r="P709" s="1"/>
       <c r="Q709" s="1"/>
       <c r="R709" s="1"/>
+      <c r="S709" s="1"/>
     </row>
     <row r="710" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="1" t="s">
@@ -27829,6 +28537,7 @@
       <c r="P710" s="1"/>
       <c r="Q710" s="1"/>
       <c r="R710" s="1"/>
+      <c r="S710" s="1"/>
     </row>
     <row r="711" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="s">
@@ -27857,6 +28566,7 @@
       <c r="P711" s="1"/>
       <c r="Q711" s="1"/>
       <c r="R711" s="1"/>
+      <c r="S711" s="1"/>
     </row>
     <row r="712" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="s">
@@ -27885,6 +28595,7 @@
       <c r="P712" s="1"/>
       <c r="Q712" s="1"/>
       <c r="R712" s="1"/>
+      <c r="S712" s="1"/>
     </row>
     <row r="713" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="s">
@@ -27913,6 +28624,7 @@
       <c r="P713" s="1"/>
       <c r="Q713" s="1"/>
       <c r="R713" s="1"/>
+      <c r="S713" s="1"/>
     </row>
     <row r="714" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="1" t="s">
@@ -27941,6 +28653,7 @@
       <c r="P714" s="1"/>
       <c r="Q714" s="1"/>
       <c r="R714" s="1"/>
+      <c r="S714" s="1"/>
     </row>
     <row r="715" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="s">
@@ -27969,6 +28682,7 @@
       <c r="P715" s="1"/>
       <c r="Q715" s="1"/>
       <c r="R715" s="1"/>
+      <c r="S715" s="1"/>
     </row>
     <row r="716" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="s">
@@ -27997,6 +28711,7 @@
       <c r="P716" s="1"/>
       <c r="Q716" s="1"/>
       <c r="R716" s="1"/>
+      <c r="S716" s="1"/>
     </row>
     <row r="717" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="s">
@@ -28025,6 +28740,7 @@
       <c r="P717" s="1"/>
       <c r="Q717" s="1"/>
       <c r="R717" s="1"/>
+      <c r="S717" s="1"/>
     </row>
     <row r="718" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="s">
@@ -28053,6 +28769,7 @@
       <c r="P718" s="1"/>
       <c r="Q718" s="1"/>
       <c r="R718" s="1"/>
+      <c r="S718" s="1"/>
     </row>
     <row r="719" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="s">
@@ -28081,6 +28798,7 @@
       <c r="P719" s="1"/>
       <c r="Q719" s="1"/>
       <c r="R719" s="1"/>
+      <c r="S719" s="1"/>
     </row>
     <row r="720" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="s">
@@ -28109,6 +28827,7 @@
       <c r="P720" s="1"/>
       <c r="Q720" s="1"/>
       <c r="R720" s="1"/>
+      <c r="S720" s="1"/>
     </row>
     <row r="721" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="1" t="s">
@@ -28137,6 +28856,7 @@
       <c r="P721" s="1"/>
       <c r="Q721" s="1"/>
       <c r="R721" s="1"/>
+      <c r="S721" s="1"/>
     </row>
     <row r="722" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="s">
@@ -28165,6 +28885,7 @@
       <c r="P722" s="1"/>
       <c r="Q722" s="1"/>
       <c r="R722" s="1"/>
+      <c r="S722" s="1"/>
     </row>
     <row r="723" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="s">
@@ -28193,6 +28914,7 @@
       <c r="P723" s="1"/>
       <c r="Q723" s="1"/>
       <c r="R723" s="1"/>
+      <c r="S723" s="1"/>
     </row>
     <row r="724" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="s">
@@ -28221,6 +28943,7 @@
       <c r="P724" s="1"/>
       <c r="Q724" s="1"/>
       <c r="R724" s="1"/>
+      <c r="S724" s="1"/>
     </row>
     <row r="725" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="s">
@@ -28249,6 +28972,7 @@
       <c r="P725" s="1"/>
       <c r="Q725" s="1"/>
       <c r="R725" s="1"/>
+      <c r="S725" s="1"/>
     </row>
     <row r="726" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="s">
@@ -28277,6 +29001,7 @@
       <c r="P726" s="1"/>
       <c r="Q726" s="1"/>
       <c r="R726" s="1"/>
+      <c r="S726" s="1"/>
     </row>
     <row r="727" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="s">
@@ -28305,6 +29030,7 @@
       <c r="P727" s="1"/>
       <c r="Q727" s="1"/>
       <c r="R727" s="1"/>
+      <c r="S727" s="1"/>
     </row>
     <row r="728" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="s">
@@ -28333,6 +29059,7 @@
       <c r="P728" s="1"/>
       <c r="Q728" s="1"/>
       <c r="R728" s="1"/>
+      <c r="S728" s="1"/>
     </row>
     <row r="729" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="s">
@@ -28361,6 +29088,7 @@
       <c r="P729" s="1"/>
       <c r="Q729" s="1"/>
       <c r="R729" s="1"/>
+      <c r="S729" s="1"/>
     </row>
     <row r="730" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="s">
@@ -28389,6 +29117,7 @@
       <c r="P730" s="1"/>
       <c r="Q730" s="1"/>
       <c r="R730" s="1"/>
+      <c r="S730" s="1"/>
     </row>
     <row r="731" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="s">
@@ -28417,6 +29146,7 @@
       <c r="P731" s="1"/>
       <c r="Q731" s="1"/>
       <c r="R731" s="1"/>
+      <c r="S731" s="1"/>
     </row>
     <row r="732" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="1" t="s">
@@ -28445,6 +29175,7 @@
       <c r="P732" s="1"/>
       <c r="Q732" s="1"/>
       <c r="R732" s="1"/>
+      <c r="S732" s="1"/>
     </row>
     <row r="733" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="1" t="s">
@@ -28473,6 +29204,7 @@
       <c r="P733" s="1"/>
       <c r="Q733" s="1"/>
       <c r="R733" s="1"/>
+      <c r="S733" s="1"/>
     </row>
     <row r="734" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="1" t="s">
@@ -28501,6 +29233,7 @@
       <c r="P734" s="1"/>
       <c r="Q734" s="1"/>
       <c r="R734" s="1"/>
+      <c r="S734" s="1"/>
     </row>
     <row r="735" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="1" t="s">
@@ -28529,6 +29262,7 @@
       <c r="P735" s="1"/>
       <c r="Q735" s="1"/>
       <c r="R735" s="1"/>
+      <c r="S735" s="1"/>
     </row>
     <row r="736" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="s">
@@ -28557,6 +29291,7 @@
       <c r="P736" s="1"/>
       <c r="Q736" s="1"/>
       <c r="R736" s="1"/>
+      <c r="S736" s="1"/>
     </row>
     <row r="737" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="1" t="s">
@@ -28585,6 +29320,7 @@
       <c r="P737" s="1"/>
       <c r="Q737" s="1"/>
       <c r="R737" s="1"/>
+      <c r="S737" s="1"/>
     </row>
     <row r="738" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="1" t="s">
@@ -28613,6 +29349,7 @@
       <c r="P738" s="1"/>
       <c r="Q738" s="1"/>
       <c r="R738" s="1"/>
+      <c r="S738" s="1"/>
     </row>
     <row r="739" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="1" t="s">
@@ -28641,6 +29378,7 @@
       <c r="P739" s="1"/>
       <c r="Q739" s="1"/>
       <c r="R739" s="1"/>
+      <c r="S739" s="1"/>
     </row>
     <row r="740" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="1" t="s">
@@ -28669,6 +29407,7 @@
       <c r="P740" s="1"/>
       <c r="Q740" s="1"/>
       <c r="R740" s="1"/>
+      <c r="S740" s="1"/>
     </row>
     <row r="741" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="s">
@@ -28697,6 +29436,7 @@
       <c r="P741" s="1"/>
       <c r="Q741" s="1"/>
       <c r="R741" s="1"/>
+      <c r="S741" s="1"/>
     </row>
     <row r="742" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="s">
@@ -28725,6 +29465,7 @@
       <c r="P742" s="1"/>
       <c r="Q742" s="1"/>
       <c r="R742" s="1"/>
+      <c r="S742" s="1"/>
     </row>
     <row r="743" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="s">
@@ -28753,6 +29494,7 @@
       <c r="P743" s="1"/>
       <c r="Q743" s="1"/>
       <c r="R743" s="1"/>
+      <c r="S743" s="1"/>
     </row>
     <row r="744" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="s">
@@ -28781,6 +29523,7 @@
       <c r="P744" s="1"/>
       <c r="Q744" s="1"/>
       <c r="R744" s="1"/>
+      <c r="S744" s="1"/>
     </row>
     <row r="745" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="s">
@@ -28809,6 +29552,7 @@
       <c r="P745" s="1"/>
       <c r="Q745" s="1"/>
       <c r="R745" s="1"/>
+      <c r="S745" s="1"/>
     </row>
     <row r="746" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="s">
@@ -28837,6 +29581,7 @@
       <c r="P746" s="1"/>
       <c r="Q746" s="1"/>
       <c r="R746" s="1"/>
+      <c r="S746" s="1"/>
     </row>
     <row r="747" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="s">
@@ -28865,6 +29610,7 @@
       <c r="P747" s="1"/>
       <c r="Q747" s="1"/>
       <c r="R747" s="1"/>
+      <c r="S747" s="1"/>
     </row>
     <row r="748" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="s">
@@ -28893,6 +29639,7 @@
       <c r="P748" s="1"/>
       <c r="Q748" s="1"/>
       <c r="R748" s="1"/>
+      <c r="S748" s="1"/>
     </row>
     <row r="749" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="s">
@@ -28921,6 +29668,7 @@
       <c r="P749" s="1"/>
       <c r="Q749" s="1"/>
       <c r="R749" s="1"/>
+      <c r="S749" s="1"/>
     </row>
     <row r="750" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="s">
@@ -28949,6 +29697,7 @@
       <c r="P750" s="1"/>
       <c r="Q750" s="1"/>
       <c r="R750" s="1"/>
+      <c r="S750" s="1"/>
     </row>
     <row r="751" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="s">
@@ -28977,6 +29726,7 @@
       <c r="P751" s="1"/>
       <c r="Q751" s="1"/>
       <c r="R751" s="1"/>
+      <c r="S751" s="1"/>
     </row>
     <row r="752" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="s">
@@ -29005,6 +29755,7 @@
       <c r="P752" s="1"/>
       <c r="Q752" s="1"/>
       <c r="R752" s="1"/>
+      <c r="S752" s="1"/>
     </row>
     <row r="753" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="s">
@@ -29033,6 +29784,7 @@
       <c r="P753" s="1"/>
       <c r="Q753" s="1"/>
       <c r="R753" s="1"/>
+      <c r="S753" s="1"/>
     </row>
     <row r="754" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="s">
@@ -29061,6 +29813,7 @@
       <c r="P754" s="1"/>
       <c r="Q754" s="1"/>
       <c r="R754" s="1"/>
+      <c r="S754" s="1"/>
     </row>
     <row r="755" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="s">
@@ -29089,6 +29842,7 @@
       <c r="P755" s="1"/>
       <c r="Q755" s="1"/>
       <c r="R755" s="1"/>
+      <c r="S755" s="1"/>
     </row>
     <row r="756" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="s">
@@ -29117,6 +29871,7 @@
       <c r="P756" s="1"/>
       <c r="Q756" s="1"/>
       <c r="R756" s="1"/>
+      <c r="S756" s="1"/>
     </row>
     <row r="757" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="1" t="s">
@@ -29145,6 +29900,7 @@
       <c r="P757" s="1"/>
       <c r="Q757" s="1"/>
       <c r="R757" s="1"/>
+      <c r="S757" s="1"/>
     </row>
     <row r="758" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="1" t="s">
@@ -29173,6 +29929,7 @@
       <c r="P758" s="1"/>
       <c r="Q758" s="1"/>
       <c r="R758" s="1"/>
+      <c r="S758" s="1"/>
     </row>
     <row r="759" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="s">
@@ -29201,6 +29958,7 @@
       <c r="P759" s="1"/>
       <c r="Q759" s="1"/>
       <c r="R759" s="1"/>
+      <c r="S759" s="1"/>
     </row>
     <row r="760" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="s">
@@ -29229,6 +29987,7 @@
       <c r="P760" s="1"/>
       <c r="Q760" s="1"/>
       <c r="R760" s="1"/>
+      <c r="S760" s="1"/>
     </row>
     <row r="761" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="1" t="s">
@@ -29257,6 +30016,7 @@
       <c r="P761" s="1"/>
       <c r="Q761" s="1"/>
       <c r="R761" s="1"/>
+      <c r="S761" s="1"/>
     </row>
     <row r="762" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="1" t="s">
@@ -29285,6 +30045,7 @@
       <c r="P762" s="1"/>
       <c r="Q762" s="1"/>
       <c r="R762" s="1"/>
+      <c r="S762" s="1"/>
     </row>
     <row r="763" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="1" t="s">
@@ -29313,6 +30074,7 @@
       <c r="P763" s="1"/>
       <c r="Q763" s="1"/>
       <c r="R763" s="1"/>
+      <c r="S763" s="1"/>
     </row>
     <row r="764" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="1" t="s">
@@ -29341,6 +30103,7 @@
       <c r="P764" s="1"/>
       <c r="Q764" s="1"/>
       <c r="R764" s="1"/>
+      <c r="S764" s="1"/>
     </row>
     <row r="765" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="1" t="s">
@@ -29369,6 +30132,7 @@
       <c r="P765" s="1"/>
       <c r="Q765" s="1"/>
       <c r="R765" s="1"/>
+      <c r="S765" s="1"/>
     </row>
     <row r="766" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="s">
@@ -29397,6 +30161,7 @@
       <c r="P766" s="1"/>
       <c r="Q766" s="1"/>
       <c r="R766" s="1"/>
+      <c r="S766" s="1"/>
     </row>
     <row r="767" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="1" t="s">
@@ -29425,6 +30190,7 @@
       <c r="P767" s="1"/>
       <c r="Q767" s="1"/>
       <c r="R767" s="1"/>
+      <c r="S767" s="1"/>
     </row>
     <row r="768" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="1" t="s">
@@ -29453,6 +30219,7 @@
       <c r="P768" s="1"/>
       <c r="Q768" s="1"/>
       <c r="R768" s="1"/>
+      <c r="S768" s="1"/>
     </row>
     <row r="769" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="1" t="s">
@@ -29481,6 +30248,7 @@
       <c r="P769" s="1"/>
       <c r="Q769" s="1"/>
       <c r="R769" s="1"/>
+      <c r="S769" s="1"/>
     </row>
     <row r="770" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="1" t="s">
@@ -29509,6 +30277,7 @@
       <c r="P770" s="1"/>
       <c r="Q770" s="1"/>
       <c r="R770" s="1"/>
+      <c r="S770" s="1"/>
     </row>
     <row r="771" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="1" t="s">
@@ -29537,6 +30306,7 @@
       <c r="P771" s="1"/>
       <c r="Q771" s="1"/>
       <c r="R771" s="1"/>
+      <c r="S771" s="1"/>
     </row>
     <row r="772" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="1" t="s">
@@ -29565,6 +30335,7 @@
       <c r="P772" s="1"/>
       <c r="Q772" s="1"/>
       <c r="R772" s="1"/>
+      <c r="S772" s="1"/>
     </row>
     <row r="773" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="1" t="s">
@@ -29593,6 +30364,7 @@
       <c r="P773" s="1"/>
       <c r="Q773" s="1"/>
       <c r="R773" s="1"/>
+      <c r="S773" s="1"/>
     </row>
     <row r="774" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="1" t="s">
@@ -29621,6 +30393,7 @@
       <c r="P774" s="1"/>
       <c r="Q774" s="1"/>
       <c r="R774" s="1"/>
+      <c r="S774" s="1"/>
     </row>
     <row r="775" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="1" t="s">
@@ -29649,6 +30422,7 @@
       <c r="P775" s="1"/>
       <c r="Q775" s="1"/>
       <c r="R775" s="1"/>
+      <c r="S775" s="1"/>
     </row>
     <row r="776" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="1" t="s">
@@ -29677,6 +30451,7 @@
       <c r="P776" s="1"/>
       <c r="Q776" s="1"/>
       <c r="R776" s="1"/>
+      <c r="S776" s="1"/>
     </row>
     <row r="777" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="1" t="s">
@@ -29705,6 +30480,7 @@
       <c r="P777" s="1"/>
       <c r="Q777" s="1"/>
       <c r="R777" s="1"/>
+      <c r="S777" s="1"/>
     </row>
     <row r="778" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="1" t="s">
@@ -29733,6 +30509,7 @@
       <c r="P778" s="1"/>
       <c r="Q778" s="1"/>
       <c r="R778" s="1"/>
+      <c r="S778" s="1"/>
     </row>
     <row r="779" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="1" t="s">
@@ -29761,6 +30538,7 @@
       <c r="P779" s="1"/>
       <c r="Q779" s="1"/>
       <c r="R779" s="1"/>
+      <c r="S779" s="1"/>
     </row>
     <row r="780" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="1" t="s">
@@ -29789,6 +30567,7 @@
       <c r="P780" s="1"/>
       <c r="Q780" s="1"/>
       <c r="R780" s="1"/>
+      <c r="S780" s="1"/>
     </row>
     <row r="781" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="1" t="s">
@@ -29817,6 +30596,7 @@
       <c r="P781" s="1"/>
       <c r="Q781" s="1"/>
       <c r="R781" s="1"/>
+      <c r="S781" s="1"/>
     </row>
     <row r="782" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="1" t="s">
@@ -29845,6 +30625,7 @@
       <c r="P782" s="1"/>
       <c r="Q782" s="1"/>
       <c r="R782" s="1"/>
+      <c r="S782" s="1"/>
     </row>
     <row r="783" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="1" t="s">
@@ -29873,6 +30654,7 @@
       <c r="P783" s="1"/>
       <c r="Q783" s="1"/>
       <c r="R783" s="1"/>
+      <c r="S783" s="1"/>
     </row>
     <row r="784" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="1" t="s">
@@ -29901,6 +30683,7 @@
       <c r="P784" s="1"/>
       <c r="Q784" s="1"/>
       <c r="R784" s="1"/>
+      <c r="S784" s="1"/>
     </row>
     <row r="785" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="1" t="s">
@@ -29929,6 +30712,7 @@
       <c r="P785" s="1"/>
       <c r="Q785" s="1"/>
       <c r="R785" s="1"/>
+      <c r="S785" s="1"/>
     </row>
     <row r="786" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="s">
@@ -29957,6 +30741,7 @@
       <c r="P786" s="1"/>
       <c r="Q786" s="1"/>
       <c r="R786" s="1"/>
+      <c r="S786" s="1"/>
     </row>
     <row r="787" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="1" t="s">
@@ -29985,6 +30770,7 @@
       <c r="P787" s="1"/>
       <c r="Q787" s="1"/>
       <c r="R787" s="1"/>
+      <c r="S787" s="1"/>
     </row>
     <row r="788" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="s">
@@ -30013,6 +30799,7 @@
       <c r="P788" s="1"/>
       <c r="Q788" s="1"/>
       <c r="R788" s="1"/>
+      <c r="S788" s="1"/>
     </row>
     <row r="789" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="s">
@@ -30041,6 +30828,7 @@
       <c r="P789" s="1"/>
       <c r="Q789" s="1"/>
       <c r="R789" s="1"/>
+      <c r="S789" s="1"/>
     </row>
     <row r="790" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="s">
@@ -30069,6 +30857,7 @@
       <c r="P790" s="1"/>
       <c r="Q790" s="1"/>
       <c r="R790" s="1"/>
+      <c r="S790" s="1"/>
     </row>
     <row r="791" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="s">
@@ -30097,6 +30886,7 @@
       <c r="P791" s="1"/>
       <c r="Q791" s="1"/>
       <c r="R791" s="1"/>
+      <c r="S791" s="1"/>
     </row>
     <row r="792" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="1" t="s">
@@ -30125,6 +30915,7 @@
       <c r="P792" s="1"/>
       <c r="Q792" s="1"/>
       <c r="R792" s="1"/>
+      <c r="S792" s="1"/>
     </row>
     <row r="793" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="1" t="s">
@@ -30153,6 +30944,7 @@
       <c r="P793" s="1"/>
       <c r="Q793" s="1"/>
       <c r="R793" s="1"/>
+      <c r="S793" s="1"/>
     </row>
     <row r="794" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="1" t="s">
@@ -30181,6 +30973,7 @@
       <c r="P794" s="1"/>
       <c r="Q794" s="1"/>
       <c r="R794" s="1"/>
+      <c r="S794" s="1"/>
     </row>
     <row r="795" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="1" t="s">
@@ -30209,6 +31002,7 @@
       <c r="P795" s="1"/>
       <c r="Q795" s="1"/>
       <c r="R795" s="1"/>
+      <c r="S795" s="1"/>
     </row>
     <row r="796" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="1" t="s">
@@ -30237,6 +31031,7 @@
       <c r="P796" s="1"/>
       <c r="Q796" s="1"/>
       <c r="R796" s="1"/>
+      <c r="S796" s="1"/>
     </row>
     <row r="797" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="1" t="s">
@@ -30265,6 +31060,7 @@
       <c r="P797" s="1"/>
       <c r="Q797" s="1"/>
       <c r="R797" s="1"/>
+      <c r="S797" s="1"/>
     </row>
     <row r="798" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="1" t="s">
@@ -30293,6 +31089,7 @@
       <c r="P798" s="1"/>
       <c r="Q798" s="1"/>
       <c r="R798" s="1"/>
+      <c r="S798" s="1"/>
     </row>
     <row r="799" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="1" t="s">
@@ -30321,6 +31118,7 @@
       <c r="P799" s="1"/>
       <c r="Q799" s="1"/>
       <c r="R799" s="1"/>
+      <c r="S799" s="1"/>
     </row>
     <row r="800" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="1" t="s">
@@ -30349,6 +31147,7 @@
       <c r="P800" s="1"/>
       <c r="Q800" s="1"/>
       <c r="R800" s="1"/>
+      <c r="S800" s="1"/>
     </row>
     <row r="801" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="1" t="s">
@@ -30377,6 +31176,7 @@
       <c r="P801" s="1"/>
       <c r="Q801" s="1"/>
       <c r="R801" s="1"/>
+      <c r="S801" s="1"/>
     </row>
     <row r="802" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="1" t="s">
@@ -30405,6 +31205,7 @@
       <c r="P802" s="1"/>
       <c r="Q802" s="1"/>
       <c r="R802" s="1"/>
+      <c r="S802" s="1"/>
     </row>
     <row r="803" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="1" t="s">
@@ -30433,6 +31234,7 @@
       <c r="P803" s="1"/>
       <c r="Q803" s="1"/>
       <c r="R803" s="1"/>
+      <c r="S803" s="1"/>
     </row>
     <row r="804" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="1" t="s">
@@ -30461,6 +31263,7 @@
       <c r="P804" s="1"/>
       <c r="Q804" s="1"/>
       <c r="R804" s="1"/>
+      <c r="S804" s="1"/>
     </row>
     <row r="805" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="1" t="s">
@@ -30489,6 +31292,7 @@
       <c r="P805" s="1"/>
       <c r="Q805" s="1"/>
       <c r="R805" s="1"/>
+      <c r="S805" s="1"/>
     </row>
     <row r="806" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="1" t="s">
@@ -30517,6 +31321,7 @@
       <c r="P806" s="1"/>
       <c r="Q806" s="1"/>
       <c r="R806" s="1"/>
+      <c r="S806" s="1"/>
     </row>
     <row r="807" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="1" t="s">
@@ -30545,6 +31350,7 @@
       <c r="P807" s="1"/>
       <c r="Q807" s="1"/>
       <c r="R807" s="1"/>
+      <c r="S807" s="1"/>
     </row>
     <row r="808" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="1" t="s">
@@ -30573,6 +31379,7 @@
       <c r="P808" s="1"/>
       <c r="Q808" s="1"/>
       <c r="R808" s="1"/>
+      <c r="S808" s="1"/>
     </row>
     <row r="809" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="1" t="s">
@@ -30601,6 +31408,7 @@
       <c r="P809" s="1"/>
       <c r="Q809" s="1"/>
       <c r="R809" s="1"/>
+      <c r="S809" s="1"/>
     </row>
     <row r="810" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="1" t="s">
@@ -30629,6 +31437,7 @@
       <c r="P810" s="1"/>
       <c r="Q810" s="1"/>
       <c r="R810" s="1"/>
+      <c r="S810" s="1"/>
     </row>
     <row r="811" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="1" t="s">
@@ -30657,6 +31466,7 @@
       <c r="P811" s="1"/>
       <c r="Q811" s="1"/>
       <c r="R811" s="1"/>
+      <c r="S811" s="1"/>
     </row>
     <row r="812" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="1" t="s">
@@ -30685,6 +31495,7 @@
       <c r="P812" s="1"/>
       <c r="Q812" s="1"/>
       <c r="R812" s="1"/>
+      <c r="S812" s="1"/>
     </row>
     <row r="813" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="1" t="s">
@@ -30713,6 +31524,7 @@
       <c r="P813" s="1"/>
       <c r="Q813" s="1"/>
       <c r="R813" s="1"/>
+      <c r="S813" s="1"/>
     </row>
     <row r="814" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="1" t="s">
@@ -30741,6 +31553,7 @@
       <c r="P814" s="1"/>
       <c r="Q814" s="1"/>
       <c r="R814" s="1"/>
+      <c r="S814" s="1"/>
     </row>
     <row r="815" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="1" t="s">
@@ -30769,6 +31582,7 @@
       <c r="P815" s="1"/>
       <c r="Q815" s="1"/>
       <c r="R815" s="1"/>
+      <c r="S815" s="1"/>
     </row>
     <row r="816" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="1" t="s">
@@ -30797,6 +31611,7 @@
       <c r="P816" s="1"/>
       <c r="Q816" s="1"/>
       <c r="R816" s="1"/>
+      <c r="S816" s="1"/>
     </row>
     <row r="817" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="1" t="s">
@@ -30825,6 +31640,7 @@
       <c r="P817" s="1"/>
       <c r="Q817" s="1"/>
       <c r="R817" s="1"/>
+      <c r="S817" s="1"/>
     </row>
     <row r="818" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="1" t="s">
@@ -30853,6 +31669,7 @@
       <c r="P818" s="1"/>
       <c r="Q818" s="1"/>
       <c r="R818" s="1"/>
+      <c r="S818" s="1"/>
     </row>
     <row r="819" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="1" t="s">
@@ -30881,6 +31698,7 @@
       <c r="P819" s="1"/>
       <c r="Q819" s="1"/>
       <c r="R819" s="1"/>
+      <c r="S819" s="1"/>
     </row>
     <row r="820" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="1" t="s">
@@ -30909,6 +31727,7 @@
       <c r="P820" s="1"/>
       <c r="Q820" s="1"/>
       <c r="R820" s="1"/>
+      <c r="S820" s="1"/>
     </row>
     <row r="821" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="1" t="s">
@@ -30937,6 +31756,7 @@
       <c r="P821" s="1"/>
       <c r="Q821" s="1"/>
       <c r="R821" s="1"/>
+      <c r="S821" s="1"/>
     </row>
     <row r="822" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="s">
@@ -30965,6 +31785,7 @@
       <c r="P822" s="1"/>
       <c r="Q822" s="1"/>
       <c r="R822" s="1"/>
+      <c r="S822" s="1"/>
     </row>
     <row r="823" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="s">
@@ -30993,6 +31814,7 @@
       <c r="P823" s="1"/>
       <c r="Q823" s="1"/>
       <c r="R823" s="1"/>
+      <c r="S823" s="1"/>
     </row>
     <row r="824" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="1" t="s">
@@ -31021,6 +31843,7 @@
       <c r="P824" s="1"/>
       <c r="Q824" s="1"/>
       <c r="R824" s="1"/>
+      <c r="S824" s="1"/>
     </row>
     <row r="825" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="1" t="s">
@@ -31049,6 +31872,7 @@
       <c r="P825" s="1"/>
       <c r="Q825" s="1"/>
       <c r="R825" s="1"/>
+      <c r="S825" s="1"/>
     </row>
     <row r="826" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
@@ -31077,6 +31901,7 @@
       <c r="P826" s="1"/>
       <c r="Q826" s="1"/>
       <c r="R826" s="1"/>
+      <c r="S826" s="1"/>
     </row>
     <row r="827" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="1" t="s">
@@ -31105,6 +31930,7 @@
       <c r="P827" s="1"/>
       <c r="Q827" s="1"/>
       <c r="R827" s="1"/>
+      <c r="S827" s="1"/>
     </row>
     <row r="828" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="1" t="s">
@@ -31133,6 +31959,7 @@
       <c r="P828" s="1"/>
       <c r="Q828" s="1"/>
       <c r="R828" s="1"/>
+      <c r="S828" s="1"/>
     </row>
     <row r="829" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="1" t="s">
@@ -31161,6 +31988,7 @@
       <c r="P829" s="1"/>
       <c r="Q829" s="1"/>
       <c r="R829" s="1"/>
+      <c r="S829" s="1"/>
     </row>
     <row r="830" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="1" t="s">
@@ -31189,6 +32017,7 @@
       <c r="P830" s="1"/>
       <c r="Q830" s="1"/>
       <c r="R830" s="1"/>
+      <c r="S830" s="1"/>
     </row>
     <row r="831" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="1" t="s">
@@ -31217,6 +32046,7 @@
       <c r="P831" s="1"/>
       <c r="Q831" s="1"/>
       <c r="R831" s="1"/>
+      <c r="S831" s="1"/>
     </row>
     <row r="832" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="1" t="s">
@@ -31245,6 +32075,7 @@
       <c r="P832" s="1"/>
       <c r="Q832" s="1"/>
       <c r="R832" s="1"/>
+      <c r="S832" s="1"/>
     </row>
     <row r="833" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="1" t="s">
@@ -31273,6 +32104,7 @@
       <c r="P833" s="1"/>
       <c r="Q833" s="1"/>
       <c r="R833" s="1"/>
+      <c r="S833" s="1"/>
     </row>
     <row r="834" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="1" t="s">
@@ -31301,6 +32133,7 @@
       <c r="P834" s="1"/>
       <c r="Q834" s="1"/>
       <c r="R834" s="1"/>
+      <c r="S834" s="1"/>
     </row>
     <row r="835" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="1" t="s">
@@ -31329,6 +32162,7 @@
       <c r="P835" s="1"/>
       <c r="Q835" s="1"/>
       <c r="R835" s="1"/>
+      <c r="S835" s="1"/>
     </row>
     <row r="836" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="1" t="s">
@@ -31357,6 +32191,7 @@
       <c r="P836" s="1"/>
       <c r="Q836" s="1"/>
       <c r="R836" s="1"/>
+      <c r="S836" s="1"/>
     </row>
     <row r="837" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="1" t="s">
@@ -31385,6 +32220,7 @@
       <c r="P837" s="1"/>
       <c r="Q837" s="1"/>
       <c r="R837" s="1"/>
+      <c r="S837" s="1"/>
     </row>
     <row r="838" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="1" t="s">
@@ -31413,6 +32249,7 @@
       <c r="P838" s="1"/>
       <c r="Q838" s="1"/>
       <c r="R838" s="1"/>
+      <c r="S838" s="1"/>
     </row>
     <row r="839" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
@@ -31441,6 +32278,7 @@
       <c r="P839" s="1"/>
       <c r="Q839" s="1"/>
       <c r="R839" s="1"/>
+      <c r="S839" s="1"/>
     </row>
     <row r="840" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="1" t="s">
@@ -31469,6 +32307,7 @@
       <c r="P840" s="1"/>
       <c r="Q840" s="1"/>
       <c r="R840" s="1"/>
+      <c r="S840" s="1"/>
     </row>
     <row r="841" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="1" t="s">
@@ -31497,6 +32336,7 @@
       <c r="P841" s="1"/>
       <c r="Q841" s="1"/>
       <c r="R841" s="1"/>
+      <c r="S841" s="1"/>
     </row>
     <row r="842" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="1" t="s">
@@ -31525,6 +32365,7 @@
       <c r="P842" s="1"/>
       <c r="Q842" s="1"/>
       <c r="R842" s="1"/>
+      <c r="S842" s="1"/>
     </row>
     <row r="843" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="1" t="s">
@@ -31553,6 +32394,7 @@
       <c r="P843" s="1"/>
       <c r="Q843" s="1"/>
       <c r="R843" s="1"/>
+      <c r="S843" s="1"/>
     </row>
     <row r="844" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="1" t="s">
@@ -31581,6 +32423,7 @@
       <c r="P844" s="1"/>
       <c r="Q844" s="1"/>
       <c r="R844" s="1"/>
+      <c r="S844" s="1"/>
     </row>
     <row r="845" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
@@ -31609,6 +32452,7 @@
       <c r="P845" s="1"/>
       <c r="Q845" s="1"/>
       <c r="R845" s="1"/>
+      <c r="S845" s="1"/>
     </row>
     <row r="846" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="1" t="s">
@@ -31637,6 +32481,7 @@
       <c r="P846" s="1"/>
       <c r="Q846" s="1"/>
       <c r="R846" s="1"/>
+      <c r="S846" s="1"/>
     </row>
     <row r="847" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
@@ -31665,6 +32510,7 @@
       <c r="P847" s="1"/>
       <c r="Q847" s="1"/>
       <c r="R847" s="1"/>
+      <c r="S847" s="1"/>
     </row>
     <row r="848" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="1" t="s">
@@ -31693,6 +32539,7 @@
       <c r="P848" s="1"/>
       <c r="Q848" s="1"/>
       <c r="R848" s="1"/>
+      <c r="S848" s="1"/>
     </row>
     <row r="849" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="1" t="s">
@@ -31721,6 +32568,7 @@
       <c r="P849" s="1"/>
       <c r="Q849" s="1"/>
       <c r="R849" s="1"/>
+      <c r="S849" s="1"/>
     </row>
     <row r="850" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="1" t="s">
@@ -31749,6 +32597,7 @@
       <c r="P850" s="1"/>
       <c r="Q850" s="1"/>
       <c r="R850" s="1"/>
+      <c r="S850" s="1"/>
     </row>
     <row r="851" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="1" t="s">
@@ -31777,6 +32626,7 @@
       <c r="P851" s="1"/>
       <c r="Q851" s="1"/>
       <c r="R851" s="1"/>
+      <c r="S851" s="1"/>
     </row>
     <row r="852" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="1" t="s">
@@ -31805,6 +32655,7 @@
       <c r="P852" s="1"/>
       <c r="Q852" s="1"/>
       <c r="R852" s="1"/>
+      <c r="S852" s="1"/>
     </row>
     <row r="853" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="1" t="s">
@@ -31833,6 +32684,7 @@
       <c r="P853" s="1"/>
       <c r="Q853" s="1"/>
       <c r="R853" s="1"/>
+      <c r="S853" s="1"/>
     </row>
     <row r="854" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="1" t="s">
@@ -31861,6 +32713,7 @@
       <c r="P854" s="1"/>
       <c r="Q854" s="1"/>
       <c r="R854" s="1"/>
+      <c r="S854" s="1"/>
     </row>
     <row r="855" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="1" t="s">
@@ -31889,6 +32742,7 @@
       <c r="P855" s="1"/>
       <c r="Q855" s="1"/>
       <c r="R855" s="1"/>
+      <c r="S855" s="1"/>
     </row>
     <row r="856" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="1" t="s">
@@ -31917,6 +32771,7 @@
       <c r="P856" s="1"/>
       <c r="Q856" s="1"/>
       <c r="R856" s="1"/>
+      <c r="S856" s="1"/>
     </row>
     <row r="857" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="1" t="s">
@@ -31945,6 +32800,7 @@
       <c r="P857" s="1"/>
       <c r="Q857" s="1"/>
       <c r="R857" s="1"/>
+      <c r="S857" s="1"/>
     </row>
     <row r="858" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="1" t="s">
@@ -31973,6 +32829,7 @@
       <c r="P858" s="1"/>
       <c r="Q858" s="1"/>
       <c r="R858" s="1"/>
+      <c r="S858" s="1"/>
     </row>
     <row r="859" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
@@ -32001,6 +32858,7 @@
       <c r="P859" s="1"/>
       <c r="Q859" s="1"/>
       <c r="R859" s="1"/>
+      <c r="S859" s="1"/>
     </row>
     <row r="860" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="1" t="s">
@@ -32029,6 +32887,7 @@
       <c r="P860" s="1"/>
       <c r="Q860" s="1"/>
       <c r="R860" s="1"/>
+      <c r="S860" s="1"/>
     </row>
     <row r="861" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="1" t="s">
@@ -32057,6 +32916,7 @@
       <c r="P861" s="1"/>
       <c r="Q861" s="1"/>
       <c r="R861" s="1"/>
+      <c r="S861" s="1"/>
     </row>
     <row r="862" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="1" t="s">
@@ -32085,6 +32945,7 @@
       <c r="P862" s="1"/>
       <c r="Q862" s="1"/>
       <c r="R862" s="1"/>
+      <c r="S862" s="1"/>
     </row>
     <row r="863" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="1" t="s">
@@ -32113,6 +32974,7 @@
       <c r="P863" s="1"/>
       <c r="Q863" s="1"/>
       <c r="R863" s="1"/>
+      <c r="S863" s="1"/>
     </row>
     <row r="864" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="1" t="s">
@@ -32141,6 +33003,7 @@
       <c r="P864" s="1"/>
       <c r="Q864" s="1"/>
       <c r="R864" s="1"/>
+      <c r="S864" s="1"/>
     </row>
     <row r="865" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="1" t="s">
@@ -32169,6 +33032,7 @@
       <c r="P865" s="1"/>
       <c r="Q865" s="1"/>
       <c r="R865" s="1"/>
+      <c r="S865" s="1"/>
     </row>
     <row r="866" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="1" t="s">
@@ -32197,6 +33061,7 @@
       <c r="P866" s="1"/>
       <c r="Q866" s="1"/>
       <c r="R866" s="1"/>
+      <c r="S866" s="1"/>
     </row>
     <row r="867" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
@@ -32225,6 +33090,7 @@
       <c r="P867" s="1"/>
       <c r="Q867" s="1"/>
       <c r="R867" s="1"/>
+      <c r="S867" s="1"/>
     </row>
     <row r="868" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="1" t="s">
@@ -32253,6 +33119,7 @@
       <c r="P868" s="1"/>
       <c r="Q868" s="1"/>
       <c r="R868" s="1"/>
+      <c r="S868" s="1"/>
     </row>
     <row r="869" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="1" t="s">
@@ -32281,6 +33148,7 @@
       <c r="P869" s="1"/>
       <c r="Q869" s="1"/>
       <c r="R869" s="1"/>
+      <c r="S869" s="1"/>
     </row>
     <row r="870" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="1" t="s">
@@ -32309,6 +33177,7 @@
       <c r="P870" s="1"/>
       <c r="Q870" s="1"/>
       <c r="R870" s="1"/>
+      <c r="S870" s="1"/>
     </row>
     <row r="871" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="1" t="s">
@@ -32337,6 +33206,7 @@
       <c r="P871" s="1"/>
       <c r="Q871" s="1"/>
       <c r="R871" s="1"/>
+      <c r="S871" s="1"/>
     </row>
     <row r="872" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="1" t="s">
@@ -32365,6 +33235,7 @@
       <c r="P872" s="1"/>
       <c r="Q872" s="1"/>
       <c r="R872" s="1"/>
+      <c r="S872" s="1"/>
     </row>
     <row r="873" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="1" t="s">
@@ -32393,6 +33264,7 @@
       <c r="P873" s="1"/>
       <c r="Q873" s="1"/>
       <c r="R873" s="1"/>
+      <c r="S873" s="1"/>
     </row>
     <row r="874" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="1" t="s">
@@ -32421,6 +33293,7 @@
       <c r="P874" s="1"/>
       <c r="Q874" s="1"/>
       <c r="R874" s="1"/>
+      <c r="S874" s="1"/>
     </row>
     <row r="875" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="1" t="s">
@@ -32449,6 +33322,7 @@
       <c r="P875" s="1"/>
       <c r="Q875" s="1"/>
       <c r="R875" s="1"/>
+      <c r="S875" s="1"/>
     </row>
     <row r="876" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="1" t="s">
@@ -32477,6 +33351,7 @@
       <c r="P876" s="1"/>
       <c r="Q876" s="1"/>
       <c r="R876" s="1"/>
+      <c r="S876" s="1"/>
     </row>
     <row r="877" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="1" t="s">
@@ -32505,6 +33380,7 @@
       <c r="P877" s="1"/>
       <c r="Q877" s="1"/>
       <c r="R877" s="1"/>
+      <c r="S877" s="1"/>
     </row>
     <row r="878" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="1" t="s">
@@ -32533,6 +33409,7 @@
       <c r="P878" s="1"/>
       <c r="Q878" s="1"/>
       <c r="R878" s="1"/>
+      <c r="S878" s="1"/>
     </row>
     <row r="879" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="1" t="s">
@@ -32561,6 +33438,7 @@
       <c r="P879" s="1"/>
       <c r="Q879" s="1"/>
       <c r="R879" s="1"/>
+      <c r="S879" s="1"/>
     </row>
     <row r="880" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="1" t="s">
@@ -32589,6 +33467,7 @@
       <c r="P880" s="1"/>
       <c r="Q880" s="1"/>
       <c r="R880" s="1"/>
+      <c r="S880" s="1"/>
     </row>
     <row r="881" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="1" t="s">
@@ -32617,6 +33496,7 @@
       <c r="P881" s="1"/>
       <c r="Q881" s="1"/>
       <c r="R881" s="1"/>
+      <c r="S881" s="1"/>
     </row>
     <row r="882" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="1" t="s">
@@ -32645,6 +33525,7 @@
       <c r="P882" s="1"/>
       <c r="Q882" s="1"/>
       <c r="R882" s="1"/>
+      <c r="S882" s="1"/>
     </row>
     <row r="883" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="1" t="s">
@@ -32673,6 +33554,7 @@
       <c r="P883" s="1"/>
       <c r="Q883" s="1"/>
       <c r="R883" s="1"/>
+      <c r="S883" s="1"/>
     </row>
     <row r="884" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="1" t="s">
@@ -32701,6 +33583,7 @@
       <c r="P884" s="1"/>
       <c r="Q884" s="1"/>
       <c r="R884" s="1"/>
+      <c r="S884" s="1"/>
     </row>
     <row r="885" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="1" t="s">
@@ -32729,6 +33612,7 @@
       <c r="P885" s="1"/>
       <c r="Q885" s="1"/>
       <c r="R885" s="1"/>
+      <c r="S885" s="1"/>
     </row>
     <row r="886" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="1" t="s">
@@ -32757,6 +33641,7 @@
       <c r="P886" s="1"/>
       <c r="Q886" s="1"/>
       <c r="R886" s="1"/>
+      <c r="S886" s="1"/>
     </row>
     <row r="887" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="1" t="s">
@@ -32785,6 +33670,7 @@
       <c r="P887" s="1"/>
       <c r="Q887" s="1"/>
       <c r="R887" s="1"/>
+      <c r="S887" s="1"/>
     </row>
     <row r="888" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="1" t="s">
@@ -32813,6 +33699,7 @@
       <c r="P888" s="1"/>
       <c r="Q888" s="1"/>
       <c r="R888" s="1"/>
+      <c r="S888" s="1"/>
     </row>
     <row r="889" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="1" t="s">
@@ -32841,6 +33728,7 @@
       <c r="P889" s="1"/>
       <c r="Q889" s="1"/>
       <c r="R889" s="1"/>
+      <c r="S889" s="1"/>
     </row>
     <row r="890" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="1" t="s">
@@ -32869,6 +33757,7 @@
       <c r="P890" s="1"/>
       <c r="Q890" s="1"/>
       <c r="R890" s="1"/>
+      <c r="S890" s="1"/>
     </row>
     <row r="891" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="1" t="s">
@@ -32897,6 +33786,7 @@
       <c r="P891" s="1"/>
       <c r="Q891" s="1"/>
       <c r="R891" s="1"/>
+      <c r="S891" s="1"/>
     </row>
     <row r="892" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
@@ -32925,6 +33815,7 @@
       <c r="P892" s="1"/>
       <c r="Q892" s="1"/>
       <c r="R892" s="1"/>
+      <c r="S892" s="1"/>
     </row>
     <row r="893" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="1" t="s">
@@ -32953,6 +33844,7 @@
       <c r="P893" s="1"/>
       <c r="Q893" s="1"/>
       <c r="R893" s="1"/>
+      <c r="S893" s="1"/>
     </row>
     <row r="894" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="1" t="s">
@@ -32981,6 +33873,7 @@
       <c r="P894" s="1"/>
       <c r="Q894" s="1"/>
       <c r="R894" s="1"/>
+      <c r="S894" s="1"/>
     </row>
     <row r="895" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="1" t="s">
@@ -33009,6 +33902,7 @@
       <c r="P895" s="1"/>
       <c r="Q895" s="1"/>
       <c r="R895" s="1"/>
+      <c r="S895" s="1"/>
     </row>
     <row r="896" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="1" t="s">
@@ -33037,6 +33931,7 @@
       <c r="P896" s="1"/>
       <c r="Q896" s="1"/>
       <c r="R896" s="1"/>
+      <c r="S896" s="1"/>
     </row>
     <row r="897" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="1" t="s">
@@ -33065,6 +33960,7 @@
       <c r="P897" s="1"/>
       <c r="Q897" s="1"/>
       <c r="R897" s="1"/>
+      <c r="S897" s="1"/>
     </row>
     <row r="898" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="1" t="s">
@@ -33093,6 +33989,7 @@
       <c r="P898" s="1"/>
       <c r="Q898" s="1"/>
       <c r="R898" s="1"/>
+      <c r="S898" s="1"/>
     </row>
     <row r="899" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="1" t="s">
@@ -33121,6 +34018,7 @@
       <c r="P899" s="1"/>
       <c r="Q899" s="1"/>
       <c r="R899" s="1"/>
+      <c r="S899" s="1"/>
     </row>
     <row r="900" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="s">
@@ -33149,6 +34047,7 @@
       <c r="P900" s="1"/>
       <c r="Q900" s="1"/>
       <c r="R900" s="1"/>
+      <c r="S900" s="1"/>
     </row>
     <row r="901" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="1" t="s">
@@ -33177,6 +34076,7 @@
       <c r="P901" s="1"/>
       <c r="Q901" s="1"/>
       <c r="R901" s="1"/>
+      <c r="S901" s="1"/>
     </row>
     <row r="902" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="1" t="s">
@@ -33205,6 +34105,7 @@
       <c r="P902" s="1"/>
       <c r="Q902" s="1"/>
       <c r="R902" s="1"/>
+      <c r="S902" s="1"/>
     </row>
     <row r="903" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="1" t="s">
@@ -33233,6 +34134,7 @@
       <c r="P903" s="1"/>
       <c r="Q903" s="1"/>
       <c r="R903" s="1"/>
+      <c r="S903" s="1"/>
     </row>
     <row r="904" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="1" t="s">
@@ -33261,6 +34163,7 @@
       <c r="P904" s="1"/>
       <c r="Q904" s="1"/>
       <c r="R904" s="1"/>
+      <c r="S904" s="1"/>
     </row>
     <row r="905" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="1" t="s">
@@ -33289,6 +34192,7 @@
       <c r="P905" s="1"/>
       <c r="Q905" s="1"/>
       <c r="R905" s="1"/>
+      <c r="S905" s="1"/>
     </row>
     <row r="906" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="1" t="s">
@@ -33317,6 +34221,7 @@
       <c r="P906" s="1"/>
       <c r="Q906" s="1"/>
       <c r="R906" s="1"/>
+      <c r="S906" s="1"/>
     </row>
     <row r="907" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="1" t="s">
@@ -33345,6 +34250,7 @@
       <c r="P907" s="1"/>
       <c r="Q907" s="1"/>
       <c r="R907" s="1"/>
+      <c r="S907" s="1"/>
     </row>
     <row r="908" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="1" t="s">
@@ -33373,6 +34279,7 @@
       <c r="P908" s="1"/>
       <c r="Q908" s="1"/>
       <c r="R908" s="1"/>
+      <c r="S908" s="1"/>
     </row>
     <row r="909" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="1" t="s">
@@ -33401,6 +34308,7 @@
       <c r="P909" s="1"/>
       <c r="Q909" s="1"/>
       <c r="R909" s="1"/>
+      <c r="S909" s="1"/>
     </row>
     <row r="910" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="1" t="s">
@@ -33429,6 +34337,7 @@
       <c r="P910" s="1"/>
       <c r="Q910" s="1"/>
       <c r="R910" s="1"/>
+      <c r="S910" s="1"/>
     </row>
     <row r="911" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="s">
@@ -33457,6 +34366,7 @@
       <c r="P911" s="1"/>
       <c r="Q911" s="1"/>
       <c r="R911" s="1"/>
+      <c r="S911" s="1"/>
     </row>
     <row r="912" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="1" t="s">
@@ -33485,6 +34395,7 @@
       <c r="P912" s="1"/>
       <c r="Q912" s="1"/>
       <c r="R912" s="1"/>
+      <c r="S912" s="1"/>
     </row>
     <row r="913" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="1" t="s">
@@ -33513,6 +34424,7 @@
       <c r="P913" s="1"/>
       <c r="Q913" s="1"/>
       <c r="R913" s="1"/>
+      <c r="S913" s="1"/>
     </row>
     <row r="914" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="1" t="s">
@@ -33541,6 +34453,7 @@
       <c r="P914" s="1"/>
       <c r="Q914" s="1"/>
       <c r="R914" s="1"/>
+      <c r="S914" s="1"/>
     </row>
     <row r="915" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="s">
@@ -33569,6 +34482,7 @@
       <c r="P915" s="1"/>
       <c r="Q915" s="1"/>
       <c r="R915" s="1"/>
+      <c r="S915" s="1"/>
     </row>
     <row r="916" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="1" t="s">
@@ -33597,6 +34511,7 @@
       <c r="P916" s="1"/>
       <c r="Q916" s="1"/>
       <c r="R916" s="1"/>
+      <c r="S916" s="1"/>
     </row>
     <row r="917" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="1" t="s">
@@ -33625,6 +34540,7 @@
       <c r="P917" s="1"/>
       <c r="Q917" s="1"/>
       <c r="R917" s="1"/>
+      <c r="S917" s="1"/>
     </row>
     <row r="918" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="1" t="s">
@@ -33653,6 +34569,7 @@
       <c r="P918" s="1"/>
       <c r="Q918" s="1"/>
       <c r="R918" s="1"/>
+      <c r="S918" s="1"/>
     </row>
     <row r="919" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="1" t="s">
@@ -33681,6 +34598,7 @@
       <c r="P919" s="1"/>
       <c r="Q919" s="1"/>
       <c r="R919" s="1"/>
+      <c r="S919" s="1"/>
     </row>
     <row r="920" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="1" t="s">
@@ -33709,6 +34627,7 @@
       <c r="P920" s="1"/>
       <c r="Q920" s="1"/>
       <c r="R920" s="1"/>
+      <c r="S920" s="1"/>
     </row>
     <row r="921" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="1" t="s">
@@ -33737,6 +34656,7 @@
       <c r="P921" s="1"/>
       <c r="Q921" s="1"/>
       <c r="R921" s="1"/>
+      <c r="S921" s="1"/>
     </row>
     <row r="922" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="1" t="s">
@@ -33765,6 +34685,7 @@
       <c r="P922" s="1"/>
       <c r="Q922" s="1"/>
       <c r="R922" s="1"/>
+      <c r="S922" s="1"/>
     </row>
     <row r="923" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="1" t="s">
@@ -33793,6 +34714,7 @@
       <c r="P923" s="1"/>
       <c r="Q923" s="1"/>
       <c r="R923" s="1"/>
+      <c r="S923" s="1"/>
     </row>
     <row r="924" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="1" t="s">
@@ -33821,6 +34743,7 @@
       <c r="P924" s="1"/>
       <c r="Q924" s="1"/>
       <c r="R924" s="1"/>
+      <c r="S924" s="1"/>
     </row>
     <row r="925" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
@@ -33849,6 +34772,7 @@
       <c r="P925" s="1"/>
       <c r="Q925" s="1"/>
       <c r="R925" s="1"/>
+      <c r="S925" s="1"/>
     </row>
     <row r="926" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="1" t="s">
@@ -33877,6 +34801,7 @@
       <c r="P926" s="1"/>
       <c r="Q926" s="1"/>
       <c r="R926" s="1"/>
+      <c r="S926" s="1"/>
     </row>
     <row r="927" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="1" t="s">
@@ -33905,6 +34830,7 @@
       <c r="P927" s="1"/>
       <c r="Q927" s="1"/>
       <c r="R927" s="1"/>
+      <c r="S927" s="1"/>
     </row>
     <row r="928" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="1" t="s">
@@ -33933,6 +34859,7 @@
       <c r="P928" s="1"/>
       <c r="Q928" s="1"/>
       <c r="R928" s="1"/>
+      <c r="S928" s="1"/>
     </row>
     <row r="929" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="1" t="s">
@@ -33961,6 +34888,7 @@
       <c r="P929" s="1"/>
       <c r="Q929" s="1"/>
       <c r="R929" s="1"/>
+      <c r="S929" s="1"/>
     </row>
     <row r="930" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="1" t="s">
@@ -33989,6 +34917,7 @@
       <c r="P930" s="1"/>
       <c r="Q930" s="1"/>
       <c r="R930" s="1"/>
+      <c r="S930" s="1"/>
     </row>
     <row r="931" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="1" t="s">
@@ -34017,6 +34946,7 @@
       <c r="P931" s="1"/>
       <c r="Q931" s="1"/>
       <c r="R931" s="1"/>
+      <c r="S931" s="1"/>
     </row>
     <row r="932" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="1" t="s">
@@ -34045,6 +34975,7 @@
       <c r="P932" s="1"/>
       <c r="Q932" s="1"/>
       <c r="R932" s="1"/>
+      <c r="S932" s="1"/>
     </row>
     <row r="933" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="1" t="s">
@@ -34073,6 +35004,7 @@
       <c r="P933" s="1"/>
       <c r="Q933" s="1"/>
       <c r="R933" s="1"/>
+      <c r="S933" s="1"/>
     </row>
     <row r="934" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="1" t="s">
@@ -34101,6 +35033,7 @@
       <c r="P934" s="1"/>
       <c r="Q934" s="1"/>
       <c r="R934" s="1"/>
+      <c r="S934" s="1"/>
     </row>
     <row r="935" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="1" t="s">
@@ -34129,6 +35062,7 @@
       <c r="P935" s="1"/>
       <c r="Q935" s="1"/>
       <c r="R935" s="1"/>
+      <c r="S935" s="1"/>
     </row>
     <row r="936" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="1" t="s">
@@ -34157,6 +35091,7 @@
       <c r="P936" s="1"/>
       <c r="Q936" s="1"/>
       <c r="R936" s="1"/>
+      <c r="S936" s="1"/>
     </row>
     <row r="937" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="1" t="s">
@@ -34185,6 +35120,7 @@
       <c r="P937" s="1"/>
       <c r="Q937" s="1"/>
       <c r="R937" s="1"/>
+      <c r="S937" s="1"/>
     </row>
     <row r="938" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="1" t="s">
@@ -34213,6 +35149,7 @@
       <c r="P938" s="1"/>
       <c r="Q938" s="1"/>
       <c r="R938" s="1"/>
+      <c r="S938" s="1"/>
     </row>
     <row r="939" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="1" t="s">
@@ -34241,6 +35178,7 @@
       <c r="P939" s="1"/>
       <c r="Q939" s="1"/>
       <c r="R939" s="1"/>
+      <c r="S939" s="1"/>
     </row>
     <row r="940" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="1" t="s">
@@ -34269,6 +35207,7 @@
       <c r="P940" s="1"/>
       <c r="Q940" s="1"/>
       <c r="R940" s="1"/>
+      <c r="S940" s="1"/>
     </row>
     <row r="941" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
@@ -34297,6 +35236,7 @@
       <c r="P941" s="1"/>
       <c r="Q941" s="1"/>
       <c r="R941" s="1"/>
+      <c r="S941" s="1"/>
     </row>
     <row r="942" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
@@ -34325,6 +35265,7 @@
       <c r="P942" s="1"/>
       <c r="Q942" s="1"/>
       <c r="R942" s="1"/>
+      <c r="S942" s="1"/>
     </row>
     <row r="943" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
@@ -34353,6 +35294,7 @@
       <c r="P943" s="1"/>
       <c r="Q943" s="1"/>
       <c r="R943" s="1"/>
+      <c r="S943" s="1"/>
     </row>
     <row r="944" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
@@ -34381,6 +35323,7 @@
       <c r="P944" s="1"/>
       <c r="Q944" s="1"/>
       <c r="R944" s="1"/>
+      <c r="S944" s="1"/>
     </row>
     <row r="945" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
@@ -34409,6 +35352,7 @@
       <c r="P945" s="1"/>
       <c r="Q945" s="1"/>
       <c r="R945" s="1"/>
+      <c r="S945" s="1"/>
     </row>
     <row r="946" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="1" t="s">
@@ -34437,6 +35381,7 @@
       <c r="P946" s="1"/>
       <c r="Q946" s="1"/>
       <c r="R946" s="1"/>
+      <c r="S946" s="1"/>
     </row>
     <row r="947" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
@@ -34465,6 +35410,7 @@
       <c r="P947" s="1"/>
       <c r="Q947" s="1"/>
       <c r="R947" s="1"/>
+      <c r="S947" s="1"/>
     </row>
     <row r="948" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
@@ -34493,6 +35439,7 @@
       <c r="P948" s="1"/>
       <c r="Q948" s="1"/>
       <c r="R948" s="1"/>
+      <c r="S948" s="1"/>
     </row>
     <row r="949" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
@@ -34521,6 +35468,7 @@
       <c r="P949" s="1"/>
       <c r="Q949" s="1"/>
       <c r="R949" s="1"/>
+      <c r="S949" s="1"/>
     </row>
     <row r="950" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
@@ -34549,6 +35497,7 @@
       <c r="P950" s="1"/>
       <c r="Q950" s="1"/>
       <c r="R950" s="1"/>
+      <c r="S950" s="1"/>
     </row>
     <row r="951" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="1" t="s">
@@ -34577,6 +35526,7 @@
       <c r="P951" s="1"/>
       <c r="Q951" s="1"/>
       <c r="R951" s="1"/>
+      <c r="S951" s="1"/>
     </row>
     <row r="952" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="1" t="s">
@@ -34605,6 +35555,7 @@
       <c r="P952" s="1"/>
       <c r="Q952" s="1"/>
       <c r="R952" s="1"/>
+      <c r="S952" s="1"/>
     </row>
     <row r="953" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="1" t="s">
@@ -34633,6 +35584,7 @@
       <c r="P953" s="1"/>
       <c r="Q953" s="1"/>
       <c r="R953" s="1"/>
+      <c r="S953" s="1"/>
     </row>
     <row r="954" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="1" t="s">
@@ -34661,6 +35613,7 @@
       <c r="P954" s="1"/>
       <c r="Q954" s="1"/>
       <c r="R954" s="1"/>
+      <c r="S954" s="1"/>
     </row>
     <row r="955" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="1" t="s">
@@ -34689,6 +35642,7 @@
       <c r="P955" s="1"/>
       <c r="Q955" s="1"/>
       <c r="R955" s="1"/>
+      <c r="S955" s="1"/>
     </row>
     <row r="956" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
@@ -34717,6 +35671,7 @@
       <c r="P956" s="1"/>
       <c r="Q956" s="1"/>
       <c r="R956" s="1"/>
+      <c r="S956" s="1"/>
     </row>
     <row r="957" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="1" t="s">
@@ -34745,6 +35700,7 @@
       <c r="P957" s="1"/>
       <c r="Q957" s="1"/>
       <c r="R957" s="1"/>
+      <c r="S957" s="1"/>
     </row>
     <row r="958" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="1" t="s">
@@ -34773,6 +35729,7 @@
       <c r="P958" s="1"/>
       <c r="Q958" s="1"/>
       <c r="R958" s="1"/>
+      <c r="S958" s="1"/>
     </row>
     <row r="959" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="1" t="s">
@@ -34801,6 +35758,7 @@
       <c r="P959" s="1"/>
       <c r="Q959" s="1"/>
       <c r="R959" s="1"/>
+      <c r="S959" s="1"/>
     </row>
     <row r="960" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="1" t="s">
@@ -34829,6 +35787,7 @@
       <c r="P960" s="1"/>
       <c r="Q960" s="1"/>
       <c r="R960" s="1"/>
+      <c r="S960" s="1"/>
     </row>
     <row r="961" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="1" t="s">
@@ -34857,6 +35816,7 @@
       <c r="P961" s="1"/>
       <c r="Q961" s="1"/>
       <c r="R961" s="1"/>
+      <c r="S961" s="1"/>
     </row>
     <row r="962" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="1" t="s">
@@ -34885,6 +35845,7 @@
       <c r="P962" s="1"/>
       <c r="Q962" s="1"/>
       <c r="R962" s="1"/>
+      <c r="S962" s="1"/>
     </row>
     <row r="963" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="1" t="s">
@@ -34913,6 +35874,7 @@
       <c r="P963" s="1"/>
       <c r="Q963" s="1"/>
       <c r="R963" s="1"/>
+      <c r="S963" s="1"/>
     </row>
     <row r="964" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="1" t="s">
@@ -34941,6 +35903,7 @@
       <c r="P964" s="1"/>
       <c r="Q964" s="1"/>
       <c r="R964" s="1"/>
+      <c r="S964" s="1"/>
     </row>
     <row r="965" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="1" t="s">
@@ -34969,6 +35932,7 @@
       <c r="P965" s="1"/>
       <c r="Q965" s="1"/>
       <c r="R965" s="1"/>
+      <c r="S965" s="1"/>
     </row>
     <row r="966" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="1" t="s">
@@ -34997,6 +35961,7 @@
       <c r="P966" s="1"/>
       <c r="Q966" s="1"/>
       <c r="R966" s="1"/>
+      <c r="S966" s="1"/>
     </row>
     <row r="967" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
@@ -35025,6 +35990,7 @@
       <c r="P967" s="1"/>
       <c r="Q967" s="1"/>
       <c r="R967" s="1"/>
+      <c r="S967" s="1"/>
     </row>
     <row r="968" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="1" t="s">
@@ -35053,6 +36019,7 @@
       <c r="P968" s="1"/>
       <c r="Q968" s="1"/>
       <c r="R968" s="1"/>
+      <c r="S968" s="1"/>
     </row>
     <row r="969" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="1" t="s">
@@ -35081,6 +36048,7 @@
       <c r="P969" s="1"/>
       <c r="Q969" s="1"/>
       <c r="R969" s="1"/>
+      <c r="S969" s="1"/>
     </row>
     <row r="970" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="1" t="s">
@@ -35109,6 +36077,7 @@
       <c r="P970" s="1"/>
       <c r="Q970" s="1"/>
       <c r="R970" s="1"/>
+      <c r="S970" s="1"/>
     </row>
     <row r="971" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="1" t="s">
@@ -35137,6 +36106,7 @@
       <c r="P971" s="1"/>
       <c r="Q971" s="1"/>
       <c r="R971" s="1"/>
+      <c r="S971" s="1"/>
     </row>
     <row r="972" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="1" t="s">
@@ -35165,6 +36135,7 @@
       <c r="P972" s="1"/>
       <c r="Q972" s="1"/>
       <c r="R972" s="1"/>
+      <c r="S972" s="1"/>
     </row>
     <row r="973" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="1" t="s">
@@ -35193,6 +36164,7 @@
       <c r="P973" s="1"/>
       <c r="Q973" s="1"/>
       <c r="R973" s="1"/>
+      <c r="S973" s="1"/>
     </row>
     <row r="974" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="1" t="s">
@@ -35221,6 +36193,7 @@
       <c r="P974" s="1"/>
       <c r="Q974" s="1"/>
       <c r="R974" s="1"/>
+      <c r="S974" s="1"/>
     </row>
     <row r="975" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="1" t="s">
@@ -35249,6 +36222,7 @@
       <c r="P975" s="1"/>
       <c r="Q975" s="1"/>
       <c r="R975" s="1"/>
+      <c r="S975" s="1"/>
     </row>
     <row r="976" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="1" t="s">
@@ -35277,6 +36251,7 @@
       <c r="P976" s="1"/>
       <c r="Q976" s="1"/>
       <c r="R976" s="1"/>
+      <c r="S976" s="1"/>
     </row>
     <row r="977" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="1" t="s">
@@ -35305,6 +36280,7 @@
       <c r="P977" s="1"/>
       <c r="Q977" s="1"/>
       <c r="R977" s="1"/>
+      <c r="S977" s="1"/>
     </row>
     <row r="978" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="1" t="s">
@@ -35333,6 +36309,7 @@
       <c r="P978" s="1"/>
       <c r="Q978" s="1"/>
       <c r="R978" s="1"/>
+      <c r="S978" s="1"/>
     </row>
     <row r="979" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="1" t="s">
@@ -35361,6 +36338,7 @@
       <c r="P979" s="1"/>
       <c r="Q979" s="1"/>
       <c r="R979" s="1"/>
+      <c r="S979" s="1"/>
     </row>
     <row r="980" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1" t="s">
@@ -35389,6 +36367,7 @@
       <c r="P980" s="1"/>
       <c r="Q980" s="1"/>
       <c r="R980" s="1"/>
+      <c r="S980" s="1"/>
     </row>
     <row r="981" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1" t="s">
@@ -35417,6 +36396,7 @@
       <c r="P981" s="1"/>
       <c r="Q981" s="1"/>
       <c r="R981" s="1"/>
+      <c r="S981" s="1"/>
     </row>
     <row r="982" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="1" t="s">
@@ -35445,6 +36425,7 @@
       <c r="P982" s="1"/>
       <c r="Q982" s="1"/>
       <c r="R982" s="1"/>
+      <c r="S982" s="1"/>
     </row>
     <row r="983" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="1" t="s">
@@ -35473,6 +36454,7 @@
       <c r="P983" s="1"/>
       <c r="Q983" s="1"/>
       <c r="R983" s="1"/>
+      <c r="S983" s="1"/>
     </row>
     <row r="984" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="s">
@@ -35501,6 +36483,7 @@
       <c r="P984" s="1"/>
       <c r="Q984" s="1"/>
       <c r="R984" s="1"/>
+      <c r="S984" s="1"/>
     </row>
     <row r="985" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="1" t="s">
@@ -35529,6 +36512,7 @@
       <c r="P985" s="1"/>
       <c r="Q985" s="1"/>
       <c r="R985" s="1"/>
+      <c r="S985" s="1"/>
     </row>
     <row r="986" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="1" t="s">
@@ -35557,6 +36541,7 @@
       <c r="P986" s="1"/>
       <c r="Q986" s="1"/>
       <c r="R986" s="1"/>
+      <c r="S986" s="1"/>
     </row>
     <row r="987" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="1" t="s">
@@ -35585,6 +36570,7 @@
       <c r="P987" s="1"/>
       <c r="Q987" s="1"/>
       <c r="R987" s="1"/>
+      <c r="S987" s="1"/>
     </row>
     <row r="988" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="1" t="s">
@@ -35613,6 +36599,7 @@
       <c r="P988" s="1"/>
       <c r="Q988" s="1"/>
       <c r="R988" s="1"/>
+      <c r="S988" s="1"/>
     </row>
     <row r="989" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="1" t="s">
@@ -35641,6 +36628,7 @@
       <c r="P989" s="1"/>
       <c r="Q989" s="1"/>
       <c r="R989" s="1"/>
+      <c r="S989" s="1"/>
     </row>
     <row r="990" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="1" t="s">
@@ -35669,6 +36657,7 @@
       <c r="P990" s="1"/>
       <c r="Q990" s="1"/>
       <c r="R990" s="1"/>
+      <c r="S990" s="1"/>
     </row>
     <row r="991" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="1" t="s">
@@ -35697,6 +36686,7 @@
       <c r="P991" s="1"/>
       <c r="Q991" s="1"/>
       <c r="R991" s="1"/>
+      <c r="S991" s="1"/>
     </row>
     <row r="992" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="1" t="s">
@@ -35725,6 +36715,7 @@
       <c r="P992" s="1"/>
       <c r="Q992" s="1"/>
       <c r="R992" s="1"/>
+      <c r="S992" s="1"/>
     </row>
     <row r="993" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="1" t="s">
@@ -35753,6 +36744,7 @@
       <c r="P993" s="1"/>
       <c r="Q993" s="1"/>
       <c r="R993" s="1"/>
+      <c r="S993" s="1"/>
     </row>
     <row r="994" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="1" t="s">
@@ -35781,6 +36773,7 @@
       <c r="P994" s="1"/>
       <c r="Q994" s="1"/>
       <c r="R994" s="1"/>
+      <c r="S994" s="1"/>
     </row>
     <row r="995" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
@@ -35809,6 +36802,7 @@
       <c r="P995" s="1"/>
       <c r="Q995" s="1"/>
       <c r="R995" s="1"/>
+      <c r="S995" s="1"/>
     </row>
     <row r="996" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="1" t="s">
@@ -35837,6 +36831,7 @@
       <c r="P996" s="1"/>
       <c r="Q996" s="1"/>
       <c r="R996" s="1"/>
+      <c r="S996" s="1"/>
     </row>
     <row r="997" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="1" t="s">
@@ -35865,6 +36860,7 @@
       <c r="P997" s="1"/>
       <c r="Q997" s="1"/>
       <c r="R997" s="1"/>
+      <c r="S997" s="1"/>
     </row>
     <row r="998" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="1" t="s">
@@ -35893,6 +36889,7 @@
       <c r="P998" s="1"/>
       <c r="Q998" s="1"/>
       <c r="R998" s="1"/>
+      <c r="S998" s="1"/>
     </row>
     <row r="999" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="1" t="s">
@@ -35921,6 +36918,7 @@
       <c r="P999" s="1"/>
       <c r="Q999" s="1"/>
       <c r="R999" s="1"/>
+      <c r="S999" s="1"/>
     </row>
     <row r="1000" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="1" t="s">
@@ -35949,6 +36947,7 @@
       <c r="P1000" s="1"/>
       <c r="Q1000" s="1"/>
       <c r="R1000" s="1"/>
+      <c r="S1000" s="1"/>
     </row>
     <row r="1001" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="1" t="s">
@@ -35977,6 +36976,7 @@
       <c r="P1001" s="1"/>
       <c r="Q1001" s="1"/>
       <c r="R1001" s="1"/>
+      <c r="S1001" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
